--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2441,7 +2441,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2474,7 +2474,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1749000</v>
+        <v>1909000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1749000</v>
+        <v>1909000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1829000</v>
+        <v>1749000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1829000</v>
+        <v>1749000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2668000</v>
+        <v>1829000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2668000</v>
+        <v>1829000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3189000</v>
+        <v>2668000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3189000</v>
+        <v>2668000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,30 +2616,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1449000</v>
+        <v>3189000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1449000</v>
+        <v>3189000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,63 +2649,63 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1874000</v>
+        <v>1493000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/solaris/hc/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1874000</v>
+        <v>1493000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/solaris/hc/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1358000</v>
+        <v>1874000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/solaris/hc/suv</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1358000</v>
+        <v>1874000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/solaris/hc/suv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,63 +2748,63 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2264000</v>
+        <v>1358000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2264000</v>
+        <v>1358000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1535000</v>
+        <v>2264000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1535000</v>
+        <v>2264000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1237000</v>
+        <v>1535000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1237000</v>
+        <v>1535000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1557000</v>
+        <v>1237000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1557000</v>
+        <v>1237000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1669000</v>
+        <v>1557000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1669000</v>
+        <v>1557000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1798000</v>
+        <v>1669000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1798000</v>
+        <v>1669000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1869000</v>
+        <v>1798000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1869000</v>
+        <v>1798000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,63 +2979,63 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2069000</v>
+        <v>1869000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2069000</v>
+        <v>1869000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2427000</v>
+        <v>2069000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2427000</v>
+        <v>2069000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,63 +3045,63 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3269000</v>
+        <v>2427000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3269000</v>
+        <v>2427000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1742000</v>
+        <v>3269000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1742000</v>
+        <v>3269000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2757000</v>
+        <v>1742000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2757000</v>
+        <v>1742000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1867000</v>
+        <v>2757000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1867000</v>
+        <v>2757000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2143000</v>
+        <v>1867000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2143000</v>
+        <v>1867000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,63 +3210,63 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2470000</v>
+        <v>2143000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2470000</v>
+        <v>2143000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1616000</v>
+        <v>2470000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1616000</v>
+        <v>2470000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,30 +3276,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1652000</v>
+        <v>1616000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1652000</v>
+        <v>1616000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1762000</v>
+        <v>1652000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1762000</v>
+        <v>1652000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,63 +3342,63 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2148000</v>
+        <v>1762000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2148000</v>
+        <v>1762000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4017000</v>
+        <v>2148000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4017000</v>
+        <v>2148000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,30 +3408,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1601000</v>
+        <v>4017000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1601000</v>
+        <v>4017000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1658000</v>
+        <v>1601000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1658000</v>
+        <v>1601000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,30 +3474,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1626000</v>
+        <v>1658000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1626000</v>
+        <v>1658000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2219000</v>
+        <v>1626000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2219000</v>
+        <v>1626000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4928000</v>
+        <v>2219000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4928000</v>
+        <v>2219000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1263000</v>
+        <v>4928000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1263000</v>
+        <v>4928000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,30 +3606,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1176000</v>
+        <v>1263000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1176000</v>
+        <v>1263000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1347000</v>
+        <v>1176000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1347000</v>
+        <v>1176000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1464000</v>
+        <v>1347000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1464000</v>
+        <v>1347000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1953000</v>
+        <v>1464000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1953000</v>
+        <v>1464000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3106000</v>
+        <v>1953000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3106000</v>
+        <v>1953000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1776000</v>
+        <v>3106000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1776000</v>
+        <v>3106000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,63 +3804,63 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2575000</v>
+        <v>1776000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2575000</v>
+        <v>1776000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1790000</v>
+        <v>2575000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1790000</v>
+        <v>2575000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,96 +3870,96 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1255000</v>
+        <v>1790000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1255000</v>
+        <v>1790000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2333000</v>
+        <v>1255000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2333000</v>
+        <v>1255000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1271000</v>
+        <v>2333000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1271000</v>
+        <v>2333000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,63 +3969,63 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1730000</v>
+        <v>1271000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1730000</v>
+        <v>1271000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1645000</v>
+        <v>1730000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1645000</v>
+        <v>1730000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,162 +4035,162 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1449000</v>
+        <v>1645000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1449000</v>
+        <v>1645000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2789000</v>
+        <v>1449000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2789000</v>
+        <v>1449000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1493000</v>
+        <v>2789000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1493000</v>
+        <v>2789000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3185000</v>
+        <v>1493000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3185000</v>
+        <v>1493000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2899000</v>
+        <v>3185000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2899000</v>
+        <v>3185000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,63 +4200,63 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4474000</v>
+        <v>2899000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4474000</v>
+        <v>2899000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3482000</v>
+        <v>4474000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3482000</v>
+        <v>4474000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2724000</v>
+        <v>3482000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2724000</v>
+        <v>3482000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3567000</v>
+        <v>2724000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3567000</v>
+        <v>2724000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2111000</v>
+        <v>3567000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2111000</v>
+        <v>3567000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4488000</v>
+        <v>2111000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4488000</v>
+        <v>2111000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>6009000</v>
+        <v>4488000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6009000</v>
+        <v>4488000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4188000</v>
+        <v>6009000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4188000</v>
+        <v>6009000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>9078000</v>
+        <v>4188000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>9078000</v>
+        <v>4188000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,54 +4497,87 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5248000</v>
+        <v>9078000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5248000</v>
+        <v>9078000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D126" t="n">
         <v>3042000</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F125" t="n">
+      <c r="F126" t="n">
         <v>3042000</v>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2738,7 +2738,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,63 +2781,63 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2264000</v>
+        <v>1358000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2264000</v>
+        <v>1358000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1535000</v>
+        <v>2264000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1535000</v>
+        <v>2264000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1237000</v>
+        <v>1535000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1237000</v>
+        <v>1535000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1557000</v>
+        <v>1237000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1557000</v>
+        <v>1237000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1669000</v>
+        <v>1557000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1669000</v>
+        <v>1557000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1798000</v>
+        <v>1669000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1798000</v>
+        <v>1669000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,30 +2979,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1869000</v>
+        <v>1798000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1869000</v>
+        <v>1798000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,63 +3012,63 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2069000</v>
+        <v>1869000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2069000</v>
+        <v>1869000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2427000</v>
+        <v>2069000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2427000</v>
+        <v>2069000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,63 +3078,63 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3269000</v>
+        <v>2427000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3269000</v>
+        <v>2427000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1742000</v>
+        <v>3269000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1742000</v>
+        <v>3269000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2757000</v>
+        <v>1742000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2757000</v>
+        <v>1742000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1867000</v>
+        <v>2757000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1867000</v>
+        <v>2757000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2143000</v>
+        <v>1867000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2143000</v>
+        <v>1867000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,63 +3243,63 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2470000</v>
+        <v>2143000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2470000</v>
+        <v>2143000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1616000</v>
+        <v>2470000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1616000</v>
+        <v>2470000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1652000</v>
+        <v>1616000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1652000</v>
+        <v>1616000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,30 +3342,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1762000</v>
+        <v>1652000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1762000</v>
+        <v>1652000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,63 +3375,63 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2148000</v>
+        <v>1762000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2148000</v>
+        <v>1762000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4017000</v>
+        <v>2148000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4017000</v>
+        <v>2148000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1601000</v>
+        <v>4017000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1601000</v>
+        <v>4017000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,30 +3474,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1658000</v>
+        <v>1601000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1658000</v>
+        <v>1601000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1626000</v>
+        <v>1658000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1626000</v>
+        <v>1658000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2219000</v>
+        <v>1626000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2219000</v>
+        <v>1626000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4928000</v>
+        <v>2219000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4928000</v>
+        <v>2219000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,30 +3606,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1263000</v>
+        <v>4928000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1263000</v>
+        <v>4928000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1176000</v>
+        <v>1263000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1176000</v>
+        <v>1263000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1347000</v>
+        <v>1176000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1347000</v>
+        <v>1176000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1464000</v>
+        <v>1347000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1464000</v>
+        <v>1347000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1953000</v>
+        <v>1464000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1953000</v>
+        <v>1464000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3106000</v>
+        <v>1953000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3106000</v>
+        <v>1953000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1776000</v>
+        <v>3106000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1776000</v>
+        <v>3106000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,63 +3837,63 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2575000</v>
+        <v>1776000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2575000</v>
+        <v>1776000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1790000</v>
+        <v>2575000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1790000</v>
+        <v>2575000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,96 +3903,96 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1255000</v>
+        <v>1790000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1255000</v>
+        <v>1790000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2333000</v>
+        <v>1255000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2333000</v>
+        <v>1255000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1271000</v>
+        <v>2333000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1271000</v>
+        <v>2333000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,63 +4002,63 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1730000</v>
+        <v>1271000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1730000</v>
+        <v>1271000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1645000</v>
+        <v>1730000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1645000</v>
+        <v>1730000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,162 +4068,162 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1449000</v>
+        <v>1645000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1449000</v>
+        <v>1645000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2789000</v>
+        <v>1449000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2789000</v>
+        <v>1449000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1493000</v>
+        <v>2789000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1493000</v>
+        <v>2789000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3185000</v>
+        <v>1493000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3185000</v>
+        <v>1493000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2899000</v>
+        <v>3185000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2899000</v>
+        <v>3185000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,63 +4233,63 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4474000</v>
+        <v>2899000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4474000</v>
+        <v>2899000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3482000</v>
+        <v>4474000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3482000</v>
+        <v>4474000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2724000</v>
+        <v>3482000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2724000</v>
+        <v>3482000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3567000</v>
+        <v>2724000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3567000</v>
+        <v>2724000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2111000</v>
+        <v>3567000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2111000</v>
+        <v>3567000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4488000</v>
+        <v>2111000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4488000</v>
+        <v>2111000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6009000</v>
+        <v>4488000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6009000</v>
+        <v>4488000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4188000</v>
+        <v>6009000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4188000</v>
+        <v>6009000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9078000</v>
+        <v>4188000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>9078000</v>
+        <v>4188000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,54 +4530,87 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5248000</v>
+        <v>9078000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>5248000</v>
+        <v>9078000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D127" t="n">
         <v>3042000</v>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F126" t="n">
+      <c r="F127" t="n">
         <v>3042000</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,26 +2719,26 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1874000</v>
+        <v>1617000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/solaris/hc/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1874000</v>
+        <v>1617000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/solaris/hc/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4662000</v>
+        <v>2981000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4662000</v>
+        <v>2981000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,96 +2814,96 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2264000</v>
+        <v>5231000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2264000</v>
+        <v>5231000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1535000</v>
+        <v>1358000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1535000</v>
+        <v>1358000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1237000</v>
+        <v>2264000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1237000</v>
+        <v>2264000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1557000</v>
+        <v>1535000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1557000</v>
+        <v>1535000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1669000</v>
+        <v>1237000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1669000</v>
+        <v>1237000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,30 +2979,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1798000</v>
+        <v>1557000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1798000</v>
+        <v>1557000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,30 +3012,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1869000</v>
+        <v>1669000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1869000</v>
+        <v>1669000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,162 +3045,162 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2069000</v>
+        <v>1798000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2069000</v>
+        <v>1798000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2427000</v>
+        <v>1869000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2427000</v>
+        <v>1869000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3269000</v>
+        <v>2069000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3269000</v>
+        <v>2069000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1742000</v>
+        <v>2427000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1742000</v>
+        <v>2427000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2757000</v>
+        <v>3269000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2757000</v>
+        <v>3269000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1867000</v>
+        <v>1742000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1867000</v>
+        <v>1742000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,30 +3243,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2143000</v>
+        <v>2757000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2143000</v>
+        <v>2757000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,96 +3276,96 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2470000</v>
+        <v>1867000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2470000</v>
+        <v>1867000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1616000</v>
+        <v>2143000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1616000</v>
+        <v>2143000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1652000</v>
+        <v>2470000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1652000</v>
+        <v>2470000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,30 +3375,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,96 +3408,96 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,30 +3507,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1658000</v>
+        <v>4017000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1658000</v>
+        <v>4017000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1626000</v>
+        <v>1601000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1626000</v>
+        <v>1601000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2219000</v>
+        <v>1658000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2219000</v>
+        <v>1658000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,30 +3606,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4928000</v>
+        <v>1626000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4928000</v>
+        <v>1626000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1263000</v>
+        <v>2219000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1263000</v>
+        <v>2219000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1176000</v>
+        <v>4928000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1176000</v>
+        <v>4928000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1464000</v>
+        <v>1176000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1464000</v>
+        <v>1176000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1953000</v>
+        <v>1347000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1953000</v>
+        <v>1347000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3106000</v>
+        <v>1464000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3106000</v>
+        <v>1464000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1776000</v>
+        <v>1953000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1776000</v>
+        <v>1953000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,492 +3870,492 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2575000</v>
+        <v>3106000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2575000</v>
+        <v>3106000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1790000</v>
+        <v>1776000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1790000</v>
+        <v>1776000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1255000</v>
+        <v>2575000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1255000</v>
+        <v>2575000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2333000</v>
+        <v>1790000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2333000</v>
+        <v>1790000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1271000</v>
+        <v>1255000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1271000</v>
+        <v>1255000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1730000</v>
+        <v>2333000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1730000</v>
+        <v>2333000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1645000</v>
+        <v>1271000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1645000</v>
+        <v>1271000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1449000</v>
+        <v>1730000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1449000</v>
+        <v>1730000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2789000</v>
+        <v>1645000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2789000</v>
+        <v>1645000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3185000</v>
+        <v>2789000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3185000</v>
+        <v>2789000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2899000</v>
+        <v>1493000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2899000</v>
+        <v>1493000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4474000</v>
+        <v>3185000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4474000</v>
+        <v>3185000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3482000</v>
+        <v>2899000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3482000</v>
+        <v>2899000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2724000</v>
+        <v>4474000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2724000</v>
+        <v>4474000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3567000</v>
+        <v>3482000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3567000</v>
+        <v>3482000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2111000</v>
+        <v>2724000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2111000</v>
+        <v>2724000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4488000</v>
+        <v>3567000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4488000</v>
+        <v>3567000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6009000</v>
+        <v>2111000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6009000</v>
+        <v>2111000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4188000</v>
+        <v>4488000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4188000</v>
+        <v>4488000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9078000</v>
+        <v>6009000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>9078000</v>
+        <v>6009000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,54 +4563,120 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5248000</v>
+        <v>4188000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>5248000</v>
+        <v>4188000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D129" t="n">
         <v>3042000</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F129" t="n">
         <v>3042000</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2297000</v>
+        <v>1929000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2297000</v>
+        <v>1929000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,96 +2319,96 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2720000</v>
+        <v>2000000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2720000</v>
+        <v>2000000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2309000</v>
+        <v>2720000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2309000</v>
+        <v>2720000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2189000</v>
+        <v>2309000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2189000</v>
+        <v>2309000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2429000</v>
+        <v>2189000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2429000</v>
+        <v>2189000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1709000</v>
+        <v>2429000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1709000</v>
+        <v>2429000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1909000</v>
+        <v>1709000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1909000</v>
+        <v>1709000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1749000</v>
+        <v>1909000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1749000</v>
+        <v>1909000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1829000</v>
+        <v>1749000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1829000</v>
+        <v>1749000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2668000</v>
+        <v>1829000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2668000</v>
+        <v>1829000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,30 +2616,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3189000</v>
+        <v>2668000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3189000</v>
+        <v>2668000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1449000</v>
+        <v>3189000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1449000</v>
+        <v>3189000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,96 +2682,96 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1493000</v>
+        <v>1407000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1493000</v>
+        <v>1407000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1617000</v>
+        <v>1449000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1617000</v>
+        <v>1449000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2981000</v>
+        <v>1493000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2981000</v>
+        <v>1493000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4662000</v>
+        <v>1617000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4662000</v>
+        <v>1617000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5231000</v>
+        <v>2981000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5231000</v>
+        <v>2981000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,96 +2880,96 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2264000</v>
+        <v>5231000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2264000</v>
+        <v>5231000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1535000</v>
+        <v>1358000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1535000</v>
+        <v>1358000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1237000</v>
+        <v>2264000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1237000</v>
+        <v>2264000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,30 +2979,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1557000</v>
+        <v>1535000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1557000</v>
+        <v>1535000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,30 +3012,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1669000</v>
+        <v>1237000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1669000</v>
+        <v>1237000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1798000</v>
+        <v>1557000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1798000</v>
+        <v>1557000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1869000</v>
+        <v>1669000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1869000</v>
+        <v>1669000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,162 +3111,162 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2069000</v>
+        <v>1798000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2069000</v>
+        <v>1798000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2427000</v>
+        <v>1869000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2427000</v>
+        <v>1869000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3269000</v>
+        <v>2069000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3269000</v>
+        <v>2069000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1742000</v>
+        <v>2427000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1742000</v>
+        <v>2427000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2757000</v>
+        <v>3269000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2757000</v>
+        <v>3269000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,30 +3276,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1867000</v>
+        <v>1742000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1867000</v>
+        <v>1742000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2143000</v>
+        <v>2757000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2143000</v>
+        <v>2757000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,96 +3342,96 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2470000</v>
+        <v>1867000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2470000</v>
+        <v>1867000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1616000</v>
+        <v>2143000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1616000</v>
+        <v>2143000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1652000</v>
+        <v>2470000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1652000</v>
+        <v>2470000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,96 +3474,96 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1658000</v>
+        <v>4017000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1658000</v>
+        <v>4017000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,30 +3606,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1626000</v>
+        <v>1601000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1626000</v>
+        <v>1601000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2219000</v>
+        <v>1658000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2219000</v>
+        <v>1658000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4928000</v>
+        <v>1626000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4928000</v>
+        <v>1626000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1263000</v>
+        <v>2219000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1263000</v>
+        <v>2219000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1176000</v>
+        <v>4928000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1176000</v>
+        <v>4928000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1464000</v>
+        <v>1176000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1464000</v>
+        <v>1176000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1953000</v>
+        <v>1347000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1953000</v>
+        <v>1347000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3106000</v>
+        <v>1464000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3106000</v>
+        <v>1464000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1776000</v>
+        <v>1953000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1776000</v>
+        <v>1953000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,747 +3936,1242 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2575000</v>
+        <v>3106000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2575000</v>
+        <v>3106000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1790000</v>
+        <v>1776000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1790000</v>
+        <v>1776000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1255000</v>
+        <v>2575000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1255000</v>
+        <v>2575000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2333000</v>
+        <v>912000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2333000</v>
+        <v>912000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1271000</v>
+        <v>834000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1271000</v>
+        <v>834000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1730000</v>
+        <v>630000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1730000</v>
+        <v>630000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1645000</v>
+        <v>1328000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1645000</v>
+        <v>1328000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1449000</v>
+        <v>1336000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1449000</v>
+        <v>1336000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2789000</v>
+        <v>785000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2789000</v>
+        <v>785000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1493000</v>
+        <v>1129000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1493000</v>
+        <v>1129000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3185000</v>
+        <v>1051000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3185000</v>
+        <v>1051000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2899000</v>
+        <v>1213730</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2899000</v>
+        <v>1213730</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4474000</v>
+        <v>1397000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4474000</v>
+        <v>1397000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3482000</v>
+        <v>1493000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3482000</v>
+        <v>1493000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2724000</v>
+        <v>1208000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2724000</v>
+        <v>1208000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3567000</v>
+        <v>1790000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3567000</v>
+        <v>1790000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2111000</v>
+        <v>1255000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2111000</v>
+        <v>1255000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4488000</v>
+        <v>2333000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4488000</v>
+        <v>2333000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6009000</v>
+        <v>1271000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6009000</v>
+        <v>1271000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4188000</v>
+        <v>1730000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4188000</v>
+        <v>1730000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9078000</v>
+        <v>1645000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>9078000</v>
+        <v>1645000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5248000</v>
+        <v>1449000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>5248000</v>
+        <v>1449000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Oting</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Paladin</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2789000</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>2789000</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SWM</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1493000</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1493000</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SWM</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>G01F</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1821000</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1821000</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Skywell</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ET5</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3185000</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>3185000</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2899000</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>2899000</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4474000</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>4474000</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>BZ4X</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>3482000</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>3482000</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CH-R</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2724000</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>2724000</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3567000</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3567000</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4488000</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>4488000</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D144" t="n">
         <v>3042000</v>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F144" t="n">
         <v>3042000</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4487,568 +4487,568 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2333000</v>
+        <v>4847000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2333000</v>
+        <v>4847000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1271000</v>
+        <v>5199000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1271000</v>
+        <v>5199000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1730000</v>
+        <v>5479000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1730000</v>
+        <v>5479000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1645000</v>
+        <v>5211000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1645000</v>
+        <v>5211000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1449000</v>
+        <v>6680000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1449000</v>
+        <v>6680000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2789000</v>
+        <v>6999000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2789000</v>
+        <v>6999000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1493000</v>
+        <v>2333000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1493000</v>
+        <v>2333000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1821000</v>
+        <v>1271000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1821000</v>
+        <v>1271000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3185000</v>
+        <v>1730000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3185000</v>
+        <v>1730000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2899000</v>
+        <v>1645000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2899000</v>
+        <v>1645000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4474000</v>
+        <v>1449000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4474000</v>
+        <v>1449000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3482000</v>
+        <v>2789000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3482000</v>
+        <v>2789000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2724000</v>
+        <v>1493000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2724000</v>
+        <v>1493000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3567000</v>
+        <v>1821000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3567000</v>
+        <v>1821000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2111000</v>
+        <v>3185000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2111000</v>
+        <v>3185000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4488000</v>
+        <v>2899000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4488000</v>
+        <v>2899000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6009000</v>
+        <v>4474000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>6009000</v>
+        <v>4474000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5058,30 +5058,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4188000</v>
+        <v>3482000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4188000</v>
+        <v>3482000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5091,30 +5091,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>9078000</v>
+        <v>2724000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>9078000</v>
+        <v>2724000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5124,54 +5124,252 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>5248000</v>
+        <v>3567000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5248000</v>
+        <v>3567000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4488000</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>4488000</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D150" t="n">
         <v>3042000</v>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F144" t="n">
+      <c r="F150" t="n">
         <v>3042000</v>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,7 +1121,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1131,30 +1131,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2126000</v>
+        <v>1722000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2126000</v>
+        <v>1722000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1164,63 +1164,63 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2062000</v>
+        <v>2126000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2062000</v>
+        <v>2126000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1990000</v>
+        <v>2062000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1990000</v>
+        <v>2062000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1230,30 +1230,30 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1446000</v>
+        <v>1990000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1446000</v>
+        <v>1990000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1263,30 +1263,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1926000</v>
+        <v>1446000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1926000</v>
+        <v>1446000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1296,30 +1296,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1966000</v>
+        <v>1926000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1966000</v>
+        <v>1926000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1329,63 +1329,63 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2518000</v>
+        <v>1966000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2518000</v>
+        <v>1966000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1749000</v>
+        <v>2518000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1749000</v>
+        <v>2518000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1395,30 +1395,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2389000</v>
+        <v>1749000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2389000</v>
+        <v>1749000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,30 +1428,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2142000</v>
+        <v>2389000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2142000</v>
+        <v>2389000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1461,30 +1461,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2942000</v>
+        <v>2142000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2942000</v>
+        <v>2142000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1494,63 +1494,63 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1509000</v>
+        <v>2942000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1509000</v>
+        <v>2942000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2222000</v>
+        <v>1509000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2222000</v>
+        <v>1509000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1560,30 +1560,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3613000</v>
+        <v>2222000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3613000</v>
+        <v>2222000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1593,30 +1593,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2938000</v>
+        <v>3613000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2938000</v>
+        <v>3613000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1626,30 +1626,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3725000</v>
+        <v>2938000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3725000</v>
+        <v>2938000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1659,63 +1659,63 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VX Restyling</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4625000</v>
+        <v>3725000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4625000</v>
+        <v>3725000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>i-JOY</t>
+          <t>VX Restyling</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2746000</v>
+        <v>4625000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2746000</v>
+        <v>4625000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1725,63 +1725,63 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>i-JOY</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1993000</v>
+        <v>2746000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1993000</v>
+        <v>2746000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>i-PRO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1833000</v>
+        <v>1993000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1833000</v>
+        <v>1993000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1791,30 +1791,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1799000</v>
+        <v>1833000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1799000</v>
+        <v>1833000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2184000</v>
+        <v>1799000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2184000</v>
+        <v>1799000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1857,63 +1857,63 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2362000</v>
+        <v>2184000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2362000</v>
+        <v>2184000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2552000</v>
+        <v>2362000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2552000</v>
+        <v>2362000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1923,30 +1923,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1704000</v>
+        <v>2552000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1704000</v>
+        <v>2552000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1605000</v>
+        <v>1704000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1605000</v>
+        <v>1704000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,30 +1989,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2869000</v>
+        <v>1605000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2869000</v>
+        <v>1605000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2022,63 +2022,63 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3875000</v>
+        <v>2869000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3875000</v>
+        <v>2869000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2310000</v>
+        <v>3875000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2310000</v>
+        <v>3875000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,30 +2088,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1961000</v>
+        <v>2310000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1961000</v>
+        <v>2310000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1684000</v>
+        <v>1961000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1684000</v>
+        <v>1961000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1838000</v>
+        <v>1684000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1838000</v>
+        <v>1684000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1406000</v>
+        <v>1838000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1406000</v>
+        <v>1838000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2220,30 +2220,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3159000</v>
+        <v>1406000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3159000</v>
+        <v>1406000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2253,30 +2253,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2337000</v>
+        <v>3159000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2337000</v>
+        <v>3159000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2286,30 +2286,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1929000</v>
+        <v>2337000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1929000</v>
+        <v>2337000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2000000</v>
+        <v>1929000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2000000</v>
+        <v>1929000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,96 +2352,96 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2720000</v>
+        <v>2000000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2720000</v>
+        <v>2000000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2309000</v>
+        <v>2720000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2309000</v>
+        <v>2720000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2189000</v>
+        <v>2309000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2189000</v>
+        <v>2309000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2429000</v>
+        <v>2189000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2429000</v>
+        <v>2189000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1709000</v>
+        <v>2429000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1709000</v>
+        <v>2429000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1909000</v>
+        <v>1709000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1909000</v>
+        <v>1709000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1749000</v>
+        <v>1909000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1749000</v>
+        <v>1909000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1829000</v>
+        <v>1749000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1829000</v>
+        <v>1749000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,30 +2616,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2668000</v>
+        <v>1829000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2668000</v>
+        <v>1829000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3189000</v>
+        <v>2668000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3189000</v>
+        <v>2668000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,30 +2682,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1407000</v>
+        <v>3189000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1407000</v>
+        <v>3189000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1449000</v>
+        <v>1407000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1449000</v>
+        <v>1407000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,63 +2748,63 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1617000</v>
+        <v>1493000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1617000</v>
+        <v>1493000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2981000</v>
+        <v>1617000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2981000</v>
+        <v>1617000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4662000</v>
+        <v>2981000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4662000</v>
+        <v>2981000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5231000</v>
+        <v>4662000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5231000</v>
+        <v>4662000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1358000</v>
+        <v>5231000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1358000</v>
+        <v>5231000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,63 +2946,63 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2264000</v>
+        <v>1358000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2264000</v>
+        <v>1358000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1535000</v>
+        <v>2264000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1535000</v>
+        <v>2264000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,30 +3012,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1237000</v>
+        <v>1535000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1237000</v>
+        <v>1535000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1557000</v>
+        <v>1237000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1557000</v>
+        <v>1237000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1669000</v>
+        <v>1557000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1669000</v>
+        <v>1557000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1798000</v>
+        <v>1669000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1798000</v>
+        <v>1669000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1869000</v>
+        <v>1798000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1869000</v>
+        <v>1798000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,63 +3177,63 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2069000</v>
+        <v>1869000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2069000</v>
+        <v>1869000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2427000</v>
+        <v>2069000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2427000</v>
+        <v>2069000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,63 +3243,63 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3269000</v>
+        <v>2427000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3269000</v>
+        <v>2427000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1742000</v>
+        <v>3269000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1742000</v>
+        <v>3269000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2757000</v>
+        <v>1742000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2757000</v>
+        <v>1742000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,30 +3342,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1867000</v>
+        <v>2757000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1867000</v>
+        <v>2757000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,30 +3375,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2143000</v>
+        <v>1867000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2143000</v>
+        <v>1867000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,294 +3408,294 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2470000</v>
+        <v>2143000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2470000</v>
+        <v>2143000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1616000</v>
+        <v>2470000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1616000</v>
+        <v>2470000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1652000</v>
+        <v>1292000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1652000</v>
+        <v>1292000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1762000</v>
+        <v>2112000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1762000</v>
+        <v>2112000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2148000</v>
+        <v>2324000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2148000</v>
+        <v>2324000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4017000</v>
+        <v>1616000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4017000</v>
+        <v>1616000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1601000</v>
+        <v>1652000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1601000</v>
+        <v>1652000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1658000</v>
+        <v>1762000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1658000</v>
+        <v>1762000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1626000</v>
+        <v>2148000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1626000</v>
+        <v>2148000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2219000</v>
+        <v>4017000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2219000</v>
+        <v>4017000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4928000</v>
+        <v>1601000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4928000</v>
+        <v>1601000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1263000</v>
+        <v>1658000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1263000</v>
+        <v>1658000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1176000</v>
+        <v>1626000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1176000</v>
+        <v>1626000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1347000</v>
+        <v>2219000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1347000</v>
+        <v>2219000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1464000</v>
+        <v>4928000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1464000</v>
+        <v>4928000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1953000</v>
+        <v>1263000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1953000</v>
+        <v>1263000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3106000</v>
+        <v>1176000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3106000</v>
+        <v>1176000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1776000</v>
+        <v>1347000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1776000</v>
+        <v>1347000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,162 +4002,162 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2575000</v>
+        <v>1464000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2575000</v>
+        <v>1464000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>912000</v>
+        <v>1953000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>912000</v>
+        <v>1953000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>834000</v>
+        <v>3106000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>834000</v>
+        <v>3106000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>630000</v>
+        <v>1776000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>630000</v>
+        <v>1776000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1328000</v>
+        <v>2575000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1328000</v>
+        <v>2575000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1336000</v>
+        <v>912000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1336000</v>
+        <v>912000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>785000</v>
+        <v>834000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>785000</v>
+        <v>834000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,30 +4233,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1129000</v>
+        <v>630000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1129000</v>
+        <v>630000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1051000</v>
+        <v>1328000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1051000</v>
+        <v>1328000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1213730</v>
+        <v>1336000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1213730</v>
+        <v>1336000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1397000</v>
+        <v>785000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1397000</v>
+        <v>785000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1493000</v>
+        <v>1129000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1493000</v>
+        <v>1129000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,228 +4398,228 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1208000</v>
+        <v>1051000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1208000</v>
+        <v>1051000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1790000</v>
+        <v>1213730</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1790000</v>
+        <v>1213730</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1255000</v>
+        <v>1397000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1255000</v>
+        <v>1397000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4847000</v>
+        <v>1493000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4847000</v>
+        <v>1493000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5199000</v>
+        <v>1208000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>5199000</v>
+        <v>1208000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5479000</v>
+        <v>1790000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>5479000</v>
+        <v>1790000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5211000</v>
+        <v>1255000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>5211000</v>
+        <v>1255000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6680000</v>
+        <v>4847000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6680000</v>
+        <v>4847000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,525 +4662,525 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>6999000</v>
+        <v>5199000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>6999000</v>
+        <v>5199000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2333000</v>
+        <v>5479000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2333000</v>
+        <v>5479000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1271000</v>
+        <v>5211000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1271000</v>
+        <v>5211000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1730000</v>
+        <v>6680000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1730000</v>
+        <v>6680000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1645000</v>
+        <v>6999000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1645000</v>
+        <v>6999000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1449000</v>
+        <v>2333000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1449000</v>
+        <v>2333000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2789000</v>
+        <v>1271000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2789000</v>
+        <v>1271000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1493000</v>
+        <v>1730000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1493000</v>
+        <v>1730000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1821000</v>
+        <v>1645000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1821000</v>
+        <v>1645000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3185000</v>
+        <v>1449000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3185000</v>
+        <v>1449000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2899000</v>
+        <v>2789000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2899000</v>
+        <v>2789000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4474000</v>
+        <v>1493000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4474000</v>
+        <v>1493000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3482000</v>
+        <v>1821000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3482000</v>
+        <v>1821000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2724000</v>
+        <v>3185000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2724000</v>
+        <v>3185000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3567000</v>
+        <v>2899000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3567000</v>
+        <v>2899000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2111000</v>
+        <v>4474000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2111000</v>
+        <v>4474000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5190,30 +5190,30 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4488000</v>
+        <v>3482000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4488000</v>
+        <v>3482000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5223,30 +5223,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>6009000</v>
+        <v>2724000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>6009000</v>
+        <v>2724000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5256,30 +5256,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4188000</v>
+        <v>3567000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4188000</v>
+        <v>3567000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5289,30 +5289,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>9078000</v>
+        <v>2111000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>9078000</v>
+        <v>2111000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5322,56 +5322,254 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5248000</v>
+        <v>4488000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5248000</v>
+        <v>4488000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D154" t="n">
         <v>3042000</v>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F150" t="n">
+      <c r="F154" t="n">
         <v>3042000</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>jetta</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>vs5new</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2141000</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>2141000</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>jetta</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vs7new</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2349000</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>2349000</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2264000</v>
+        <v>2519000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2264000</v>
+        <v>2519000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,96 +3540,96 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2324000</v>
+        <v>2141000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2324000</v>
+        <v>2141000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1616000</v>
+        <v>2324000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1616000</v>
+        <v>2324000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1652000</v>
+        <v>2349000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1652000</v>
+        <v>2349000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,96 +3672,96 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1658000</v>
+        <v>4017000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1658000</v>
+        <v>4017000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1626000</v>
+        <v>1601000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1626000</v>
+        <v>1601000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2219000</v>
+        <v>1658000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2219000</v>
+        <v>1658000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4928000</v>
+        <v>1626000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4928000</v>
+        <v>1626000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1263000</v>
+        <v>2219000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1263000</v>
+        <v>2219000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1176000</v>
+        <v>4928000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1176000</v>
+        <v>4928000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1464000</v>
+        <v>1176000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1464000</v>
+        <v>1176000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1953000</v>
+        <v>1347000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1953000</v>
+        <v>1347000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3106000</v>
+        <v>1464000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3106000</v>
+        <v>1464000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1776000</v>
+        <v>1953000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1776000</v>
+        <v>1953000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,96 +4134,96 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2575000</v>
+        <v>3106000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2575000</v>
+        <v>3106000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>912000</v>
+        <v>1776000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>912000</v>
+        <v>1776000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>834000</v>
+        <v>2575000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>834000</v>
+        <v>2575000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,30 +4233,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>630000</v>
+        <v>912000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>630000</v>
+        <v>912000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1328000</v>
+        <v>834000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1328000</v>
+        <v>834000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1336000</v>
+        <v>630000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1336000</v>
+        <v>630000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>785000</v>
+        <v>1328000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>785000</v>
+        <v>1328000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1129000</v>
+        <v>1336000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1129000</v>
+        <v>1336000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1051000</v>
+        <v>785000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1051000</v>
+        <v>785000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1213730</v>
+        <v>1129000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1213730</v>
+        <v>1129000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1397000</v>
+        <v>1051000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1397000</v>
+        <v>1051000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1493000</v>
+        <v>1213730</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1493000</v>
+        <v>1213730</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,162 +4530,162 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1208000</v>
+        <v>1397000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1208000</v>
+        <v>1397000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1790000</v>
+        <v>1493000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1790000</v>
+        <v>1493000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1255000</v>
+        <v>1208000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1255000</v>
+        <v>1208000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4847000</v>
+        <v>1790000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4847000</v>
+        <v>1790000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5199000</v>
+        <v>1255000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5199000</v>
+        <v>1255000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>5479000</v>
+        <v>4847000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5479000</v>
+        <v>4847000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>5211000</v>
+        <v>5199000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5211000</v>
+        <v>5199000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6680000</v>
+        <v>5479000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6680000</v>
+        <v>5479000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,492 +4794,492 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6999000</v>
+        <v>5211000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6999000</v>
+        <v>5211000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2333000</v>
+        <v>6680000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2333000</v>
+        <v>6680000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1271000</v>
+        <v>6999000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1271000</v>
+        <v>6999000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1730000</v>
+        <v>2933000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1730000</v>
+        <v>2933000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1645000</v>
+        <v>1271000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1645000</v>
+        <v>1271000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1449000</v>
+        <v>1730000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1449000</v>
+        <v>1730000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2789000</v>
+        <v>1645000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2789000</v>
+        <v>1645000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1493000</v>
+        <v>1449000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1821000</v>
+        <v>2789000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1821000</v>
+        <v>2789000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3185000</v>
+        <v>1493000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3185000</v>
+        <v>1493000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2899000</v>
+        <v>1821000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2899000</v>
+        <v>1821000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4474000</v>
+        <v>1851000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4474000</v>
+        <v>1851000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3482000</v>
+        <v>3185000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3482000</v>
+        <v>3185000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2724000</v>
+        <v>2899000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2724000</v>
+        <v>2899000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3567000</v>
+        <v>4474000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3567000</v>
+        <v>4474000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5289,30 +5289,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2111000</v>
+        <v>3482000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2111000</v>
+        <v>3482000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5322,30 +5322,30 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4488000</v>
+        <v>2724000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4488000</v>
+        <v>2724000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5355,30 +5355,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>6009000</v>
+        <v>3567000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>6009000</v>
+        <v>3567000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5388,30 +5388,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4188000</v>
+        <v>2111000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4188000</v>
+        <v>2111000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5421,30 +5421,30 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>9078000</v>
+        <v>4488000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>9078000</v>
+        <v>4488000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5454,30 +5454,30 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>5248000</v>
+        <v>6009000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5248000</v>
+        <v>6009000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5487,89 +5487,122 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3042000</v>
+        <v>4188000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3042000</v>
+        <v>4188000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>jetta</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>vs5new</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2141000</v>
+        <v>9078000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2141000</v>
+        <v>9078000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>jetta</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>vs7new</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2349000</v>
+        <v>5248000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2349000</v>
+        <v>5248000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>RAV4</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>3042000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>3042000</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
     </row>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3590000</v>
+        <v>3230000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/bj40/2-suv</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/bj40/1-restyling</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3590000</v>
+        <v>3230000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/bj40/2-suv</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/bj40/1-restyling</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/u5_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/u5_plus/1</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/u5_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/u5_plus/1</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1555000</v>
+        <v>1392000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1555000</v>
+        <v>1392000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1787000</v>
+        <v>1602000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1787000</v>
+        <v>1602000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1923,30 +1923,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>GA6</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2552000</v>
+        <v>1799000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2552000</v>
+        <v>1799000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1704000</v>
+        <v>2299000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1704000</v>
+        <v>2299000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,30 +1989,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1605000</v>
+        <v>1704000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1605000</v>
+        <v>1704000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2869000</v>
+        <v>1437000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2869000</v>
+        <v>1437000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2055,63 +2055,63 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3875000</v>
+        <v>2869000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3875000</v>
+        <v>2869000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2310000</v>
+        <v>3875000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2310000</v>
+        <v>3875000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1961000</v>
+        <v>2310000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1961000</v>
+        <v>2310000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1684000</v>
+        <v>1961000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1684000</v>
+        <v>1961000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1838000</v>
+        <v>1910000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1838000</v>
+        <v>1910000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2220,30 +2220,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1406000</v>
+        <v>1684000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1406000</v>
+        <v>1684000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2253,30 +2253,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3159000</v>
+        <v>1838000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3159000</v>
+        <v>1838000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2286,30 +2286,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2337000</v>
+        <v>1406000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2337000</v>
+        <v>1406000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1929000</v>
+        <v>3159000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1929000</v>
+        <v>3159000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2000000</v>
+        <v>2337000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000000</v>
+        <v>2337000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,129 +2385,129 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2720000</v>
+        <v>1929000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2720000</v>
+        <v>1929000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2309000</v>
+        <v>2000000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2309000</v>
+        <v>2000000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2189000</v>
+        <v>2720000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2189000</v>
+        <v>2720000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2429000</v>
+        <v>2309000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2429000</v>
+        <v>2309000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1709000</v>
+        <v>2189000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1709000</v>
+        <v>2189000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1909000</v>
+        <v>2429000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1909000</v>
+        <v>2429000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1749000</v>
+        <v>1709000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1749000</v>
+        <v>1709000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,30 +2616,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1829000</v>
+        <v>1909000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1829000</v>
+        <v>1909000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2668000</v>
+        <v>1749000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2668000</v>
+        <v>1749000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,30 +2682,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3189000</v>
+        <v>1829000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3189000</v>
+        <v>1829000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1407000</v>
+        <v>2404000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1407000</v>
+        <v>2404000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1449000</v>
+        <v>3189000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1449000</v>
+        <v>3189000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,96 +2781,96 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1493000</v>
+        <v>1407000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1493000</v>
+        <v>1407000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1617000</v>
+        <v>1449000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1617000</v>
+        <v>1449000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2981000</v>
+        <v>1493000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2981000</v>
+        <v>1493000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4662000</v>
+        <v>1617000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4662000</v>
+        <v>1617000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5231000</v>
+        <v>2981000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5231000</v>
+        <v>2981000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1358000</v>
+        <v>4662000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,96 +2979,96 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2519000</v>
+        <v>5231000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2519000</v>
+        <v>5231000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1535000</v>
+        <v>1408000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1535000</v>
+        <v>1408000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1237000</v>
+        <v>2519000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1237000</v>
+        <v>2519000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1557000</v>
+        <v>1535000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1557000</v>
+        <v>1535000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1669000</v>
+        <v>1237000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1669000</v>
+        <v>1237000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1798000</v>
+        <v>1394000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1798000</v>
+        <v>1394000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1869000</v>
+        <v>1669000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1869000</v>
+        <v>1669000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,162 +3210,162 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2069000</v>
+        <v>1612000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2069000</v>
+        <v>1612000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2427000</v>
+        <v>1869000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2427000</v>
+        <v>1869000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3269000</v>
+        <v>2069000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3269000</v>
+        <v>2069000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1742000</v>
+        <v>2427000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1742000</v>
+        <v>2427000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2757000</v>
+        <v>3269000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2757000</v>
+        <v>3269000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,30 +3375,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1867000</v>
+        <v>1742000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1867000</v>
+        <v>1742000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,30 +3408,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2143000</v>
+        <v>2757000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2143000</v>
+        <v>2757000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,96 +3441,96 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2470000</v>
+        <v>1676000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2470000</v>
+        <v>1676000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1292000</v>
+        <v>2143000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1292000</v>
+        <v>2143000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2112000</v>
+        <v>2470000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2112000</v>
+        <v>2470000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VS5 New</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2141000</v>
+        <v>1292000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2141000</v>
+        <v>1292000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2324000</v>
+        <v>2112000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2324000</v>
+        <v>2112000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,96 +3606,96 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>VS7 New</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2349000</v>
+        <v>2141000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2349000</v>
+        <v>2141000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1616000</v>
+        <v>2324000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1616000</v>
+        <v>2324000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1652000</v>
+        <v>2349000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1652000</v>
+        <v>2349000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1762000</v>
+        <v>1616000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,96 +3738,96 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2148000</v>
+        <v>1652000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4017000</v>
+        <v>1762000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1601000</v>
+        <v>2148000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1658000</v>
+        <v>4156000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1658000</v>
+        <v>4156000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1626000</v>
+        <v>1584000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1626000</v>
+        <v>1584000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2219000</v>
+        <v>1636000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2219000</v>
+        <v>1636000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4928000</v>
+        <v>1606000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4928000</v>
+        <v>1606000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1263000</v>
+        <v>2146000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1263000</v>
+        <v>2146000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1176000</v>
+        <v>4685000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1176000</v>
+        <v>4685000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1347000</v>
+        <v>1263000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1464000</v>
+        <v>1122000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1464000</v>
+        <v>1122000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1953000</v>
+        <v>1278000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1953000</v>
+        <v>1278000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,30 +4134,30 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3106000</v>
+        <v>1384000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3106000</v>
+        <v>1384000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1776000</v>
+        <v>1754000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1776000</v>
+        <v>1754000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,129 +4200,129 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2575000</v>
+        <v>3178000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2575000</v>
+        <v>3178000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>912000</v>
+        <v>3399000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>912000</v>
+        <v>3399000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>834000</v>
+        <v>1669000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>834000</v>
+        <v>1669000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>630000</v>
+        <v>2320000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>630000</v>
+        <v>2320000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1328000</v>
+        <v>912000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1328000</v>
+        <v>912000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1336000</v>
+        <v>834000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1336000</v>
+        <v>834000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>785000</v>
+        <v>630000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>785000</v>
+        <v>630000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1129000</v>
+        <v>1328000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1129000</v>
+        <v>1328000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1051000</v>
+        <v>1336000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1051000</v>
+        <v>1336000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1213730</v>
+        <v>785000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1213730</v>
+        <v>785000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1397000</v>
+        <v>1129000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1397000</v>
+        <v>1129000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1493000</v>
+        <v>1051000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1493000</v>
+        <v>1051000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,195 +4596,195 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1208000</v>
+        <v>1213730</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1208000</v>
+        <v>1213730</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1790000</v>
+        <v>1397000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1790000</v>
+        <v>1397000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1255000</v>
+        <v>1493000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1255000</v>
+        <v>1493000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4847000</v>
+        <v>1208000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4847000</v>
+        <v>1208000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>5199000</v>
+        <v>1790000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5199000</v>
+        <v>1790000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>5479000</v>
+        <v>1255000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5479000</v>
+        <v>1255000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>5211000</v>
+        <v>4847000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>5211000</v>
+        <v>4847000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4827,30 +4827,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6680000</v>
+        <v>5199000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>6680000</v>
+        <v>5199000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,624 +4860,624 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>6999000</v>
+        <v>5479000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>6999000</v>
+        <v>5479000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2933000</v>
+        <v>5211000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2933000</v>
+        <v>5211000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1271000</v>
+        <v>6680000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1271000</v>
+        <v>6680000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1730000</v>
+        <v>6999000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1730000</v>
+        <v>6999000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1645000</v>
+        <v>1573000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1645000</v>
+        <v>1573000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1449000</v>
+        <v>2069000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1449000</v>
+        <v>2069000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2789000</v>
+        <v>1909000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2789000</v>
+        <v>1909000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1493000</v>
+        <v>2933000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1493000</v>
+        <v>2933000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1821000</v>
+        <v>1271000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1821000</v>
+        <v>1271000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1851000</v>
+        <v>1730000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1851000</v>
+        <v>1730000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3185000</v>
+        <v>1645000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3185000</v>
+        <v>1645000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2899000</v>
+        <v>1449000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2899000</v>
+        <v>1449000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4474000</v>
+        <v>2789000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4474000</v>
+        <v>2789000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3482000</v>
+        <v>1493000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3482000</v>
+        <v>1493000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2724000</v>
+        <v>1821000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2724000</v>
+        <v>1821000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3567000</v>
+        <v>1851000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3567000</v>
+        <v>1851000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2111000</v>
+        <v>3185000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2111000</v>
+        <v>3185000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4488000</v>
+        <v>2899000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4488000</v>
+        <v>2899000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>6009000</v>
+        <v>4474000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>6009000</v>
+        <v>4474000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5487,30 +5487,30 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>4188000</v>
+        <v>3482000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4188000</v>
+        <v>3482000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5520,30 +5520,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>9078000</v>
+        <v>2724000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>9078000</v>
+        <v>2724000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5553,56 +5553,287 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>5248000</v>
+        <v>3567000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5248000</v>
+        <v>3567000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>4488000</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>4488000</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>6009000</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>4188000</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>9078000</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D163" t="n">
         <v>3042000</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F157" t="n">
+      <c r="F163" t="n">
         <v>3042000</v>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>cyberster</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>4653000</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>4653000</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3230000</v>
+        <v>2828000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3230000</v>
+        <v>2828000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1518000</v>
+        <v>1352000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1518000</v>
+        <v>1352000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1530000</v>
+        <v>1446000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1530000</v>
+        <v>1446000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2126000</v>
+        <v>1931000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2126000</v>
+        <v>1931000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2142000</v>
+        <v>1944000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2142000</v>
+        <v>1944000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1494000</v>
+        <v>1417000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1494000</v>
+        <v>1417000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1697000</v>
+        <v>1489000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1697000</v>
+        <v>1489000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -692,40 +692,40 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1238000</v>
+        <v>1737000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/belgee/x70/1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1238000</v>
+        <v>1737000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/belgee/x70/1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -735,30 +735,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS35 Plus</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1391000</v>
+        <v>1138000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1391000</v>
+        <v>1138000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -768,30 +768,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS35 Plus</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1622000</v>
+        <v>1255000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1622000</v>
+        <v>1255000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -801,30 +801,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1392000</v>
+        <v>1521000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1392000</v>
+        <v>1521000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -834,30 +834,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1985000</v>
+        <v>1423000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1985000</v>
+        <v>1423000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,30 +867,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS75 Plus</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1924000</v>
+        <v>1709000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1924000</v>
+        <v>1709000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -900,30 +900,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS75 Plus</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1602000</v>
+        <v>1667000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1602000</v>
+        <v>1667000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -933,30 +933,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2758000</v>
+        <v>1605000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2758000</v>
+        <v>1605000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -966,30 +966,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3150000</v>
+        <v>2444000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3150000</v>
+        <v>2444000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,30 +999,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1614000</v>
+        <v>2762000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1614000</v>
+        <v>2762000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1032,30 +1032,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2534000</v>
+        <v>1514000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2534000</v>
+        <v>1514000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,30 +1065,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1982000</v>
+        <v>2262000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1982000</v>
+        <v>2262000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1098,30 +1098,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2702000</v>
+        <v>1813000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2702000</v>
+        <v>1813000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1131,30 +1131,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1722000</v>
+        <v>2398000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1722000</v>
+        <v>2398000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1164,30 +1164,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2126000</v>
+        <v>1709000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2126000</v>
+        <v>1709000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1197,63 +1197,63 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2062000</v>
+        <v>1930000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2062000</v>
+        <v>1930000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1990000</v>
+        <v>1878000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1990000</v>
+        <v>1878000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1263,30 +1263,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1446000</v>
+        <v>1820000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1446000</v>
+        <v>1820000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1296,30 +1296,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1926000</v>
+        <v>1378000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1926000</v>
+        <v>1378000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1329,30 +1329,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1966000</v>
+        <v>1768000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1966000</v>
+        <v>1768000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1362,63 +1362,63 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2518000</v>
+        <v>1801000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2518000</v>
+        <v>1801000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1749000</v>
+        <v>2399000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1749000</v>
+        <v>2399000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,30 +1428,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2389000</v>
+        <v>1624000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2389000</v>
+        <v>1624000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1461,30 +1461,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2142000</v>
+        <v>2144000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2142000</v>
+        <v>2144000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1494,30 +1494,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2942000</v>
+        <v>1944000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2942000</v>
+        <v>1944000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1527,63 +1527,63 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1509000</v>
+        <v>2594000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1509000</v>
+        <v>2594000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2222000</v>
+        <v>1429000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2222000</v>
+        <v>1429000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1593,30 +1593,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3613000</v>
+        <v>2009000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3613000</v>
+        <v>2009000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1626,30 +1626,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2938000</v>
+        <v>3348000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2938000</v>
+        <v>3348000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1659,30 +1659,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3725000</v>
+        <v>2763000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3725000</v>
+        <v>2763000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1692,63 +1692,63 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VX Restyling</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4625000</v>
+        <v>3445000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4625000</v>
+        <v>3445000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i-JOY</t>
+          <t>VX Restyling</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2746000</v>
+        <v>4225000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2746000</v>
+        <v>4225000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1758,294 +1758,294 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>i-JET</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1993000</v>
+        <v>4173000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1993000</v>
+        <v>4173000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>i-JOY</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1833000</v>
+        <v>2597000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1833000</v>
+        <v>2597000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>i-PRO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1799000</v>
+        <v>1944000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1799000</v>
+        <v>1944000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>i-SKY</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2184000</v>
+        <v>3198000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2184000</v>
+        <v>3198000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>i-SPACE</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2362000</v>
+        <v>2184000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2362000</v>
+        <v>2184000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GA6</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1799000</v>
+        <v>1593000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1799000</v>
+        <v>1593000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2299000</v>
+        <v>1567000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2299000</v>
+        <v>1567000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1704000</v>
+        <v>1862000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1704000</v>
+        <v>1862000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1437000</v>
+        <v>1997000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1437000</v>
+        <v>1997000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2055,30 +2055,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>GA6</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2869000</v>
+        <v>1559000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2869000</v>
+        <v>1559000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,162 +2088,162 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3875000</v>
+        <v>2209000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3875000</v>
+        <v>2209000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2310000</v>
+        <v>1494000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2310000</v>
+        <v>1494000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1961000</v>
+        <v>1462000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1961000</v>
+        <v>1462000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1910000</v>
+        <v>2534000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1910000</v>
+        <v>2534000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1684000</v>
+        <v>3575000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1684000</v>
+        <v>3575000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2253,30 +2253,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1838000</v>
+        <v>2080000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1838000</v>
+        <v>2080000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2286,30 +2286,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1406000</v>
+        <v>1797000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1406000</v>
+        <v>1797000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3159000</v>
+        <v>1755000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3159000</v>
+        <v>1755000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2337000</v>
+        <v>1479000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2337000</v>
+        <v>1479000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1929000</v>
+        <v>1696000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1929000</v>
+        <v>1696000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2000000</v>
+        <v>1345000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2000000</v>
+        <v>1345000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,195 +2451,195 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2720000</v>
+        <v>2954000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2720000</v>
+        <v>2954000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2309000</v>
+        <v>2242000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2309000</v>
+        <v>2242000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2189000</v>
+        <v>1888000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2189000</v>
+        <v>1888000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2429000</v>
+        <v>1950000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2429000</v>
+        <v>1950000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1709000</v>
+        <v>2574000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1709000</v>
+        <v>2574000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1909000</v>
+        <v>2079000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1909000</v>
+        <v>2079000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1749000</v>
+        <v>1982000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1749000</v>
+        <v>1982000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,30 +2682,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1829000</v>
+        <v>2177000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1829000</v>
+        <v>2177000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2404000</v>
+        <v>1592000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2404000</v>
+        <v>1592000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3189000</v>
+        <v>1754000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3189000</v>
+        <v>1754000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1407000</v>
+        <v>1624000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1407000</v>
+        <v>1624000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1449000</v>
+        <v>1689000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1449000</v>
+        <v>1689000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,426 +2847,426 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1493000</v>
+        <v>2300000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1493000</v>
+        <v>2300000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1617000</v>
+        <v>2794000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1617000</v>
+        <v>2794000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2981000</v>
+        <v>1267000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2981000</v>
+        <v>1267000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4662000</v>
+        <v>1299000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4662000</v>
+        <v>1299000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5231000</v>
+        <v>1416000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5231000</v>
+        <v>1416000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1408000</v>
+        <v>3114000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1408000</v>
+        <v>3114000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>HS5</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2519000</v>
+        <v>3504000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2519000</v>
+        <v>3504000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1535000</v>
+        <v>1618000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1535000</v>
+        <v>1618000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1237000</v>
+        <v>2625000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1237000</v>
+        <v>2625000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1394000</v>
+        <v>4257000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1394000</v>
+        <v>4257000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1669000</v>
+        <v>4453000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1669000</v>
+        <v>4453000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1612000</v>
+        <v>1268000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1612000</v>
+        <v>1268000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1869000</v>
+        <v>1923000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1869000</v>
+        <v>1923000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,756 +3276,756 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2069000</v>
+        <v>1365000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2069000</v>
+        <v>1365000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2427000</v>
+        <v>1137000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2427000</v>
+        <v>1137000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3269000</v>
+        <v>1425000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3269000</v>
+        <v>1425000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1742000</v>
+        <v>1559000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1742000</v>
+        <v>1559000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2757000</v>
+        <v>1614000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2757000</v>
+        <v>1614000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1676000</v>
+        <v>1722000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1676000</v>
+        <v>1722000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2143000</v>
+        <v>1884000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2143000</v>
+        <v>1884000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2470000</v>
+        <v>2047000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2470000</v>
+        <v>2047000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1292000</v>
+        <v>2859000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1292000</v>
+        <v>2859000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2112000</v>
+        <v>1618000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2112000</v>
+        <v>1618000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>VS5 New</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2141000</v>
+        <v>2443000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2141000</v>
+        <v>2443000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2324000</v>
+        <v>1669000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2324000</v>
+        <v>1669000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VS7 New</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2349000</v>
+        <v>1944000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2349000</v>
+        <v>1944000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1616000</v>
+        <v>2210000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1616000</v>
+        <v>2210000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1652000</v>
+        <v>1253000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1652000</v>
+        <v>1253000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1762000</v>
+        <v>1919000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1762000</v>
+        <v>1919000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2148000</v>
+        <v>1943000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2148000</v>
+        <v>1943000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4156000</v>
+        <v>2091000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4156000</v>
+        <v>2091000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1584000</v>
+        <v>2112000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1584000</v>
+        <v>2112000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1636000</v>
+        <v>1427000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1636000</v>
+        <v>1427000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1606000</v>
+        <v>1455000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1606000</v>
+        <v>1455000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2146000</v>
+        <v>1635000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2146000</v>
+        <v>1635000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4685000</v>
+        <v>1949000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4685000</v>
+        <v>1949000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1263000</v>
+        <v>3819000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1263000</v>
+        <v>3819000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1122000</v>
+        <v>1589000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1122000</v>
+        <v>1589000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1278000</v>
+        <v>1635000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1278000</v>
+        <v>1635000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,30 +4134,30 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1384000</v>
+        <v>1609000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1384000</v>
+        <v>1609000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1754000</v>
+        <v>2077000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1754000</v>
+        <v>2077000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3178000</v>
+        <v>2138000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3178000</v>
+        <v>2138000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,30 +4233,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3399000</v>
+        <v>4277000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3399000</v>
+        <v>4277000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1669000</v>
+        <v>1157000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1669000</v>
+        <v>1157000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,261 +4299,261 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2320000</v>
+        <v>1189000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2320000</v>
+        <v>1189000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>912000</v>
+        <v>1324000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>912000</v>
+        <v>1324000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>834000</v>
+        <v>1416000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>834000</v>
+        <v>1416000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>630000</v>
+        <v>1737000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>630000</v>
+        <v>1737000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1328000</v>
+        <v>2971000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1328000</v>
+        <v>2971000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1336000</v>
+        <v>3162000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1336000</v>
+        <v>3162000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>785000</v>
+        <v>1663000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>785000</v>
+        <v>1663000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1129000</v>
+        <v>2227000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1129000</v>
+        <v>2227000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1051000</v>
+        <v>741000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1051000</v>
+        <v>741000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1213730</v>
+        <v>677000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1213730</v>
+        <v>677000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1397000</v>
+        <v>455000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1397000</v>
+        <v>455000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1493000</v>
+        <v>1079000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1493000</v>
+        <v>1079000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,1053 +4695,1053 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1208000</v>
+        <v>1086000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1208000</v>
+        <v>1086000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1790000</v>
+        <v>638000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1790000</v>
+        <v>638000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1255000</v>
+        <v>887000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1255000</v>
+        <v>887000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4847000</v>
+        <v>854000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4847000</v>
+        <v>854000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5199000</v>
+        <v>1127000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>5199000</v>
+        <v>1127000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5479000</v>
+        <v>1135000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>5479000</v>
+        <v>1135000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>5211000</v>
+        <v>1213000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5211000</v>
+        <v>1213000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6680000</v>
+        <v>981000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>6680000</v>
+        <v>981000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6999000</v>
+        <v>1657000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6999000</v>
+        <v>1657000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1573000</v>
+        <v>1087000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1573000</v>
+        <v>1087000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2069000</v>
+        <v>3938000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2069000</v>
+        <v>3938000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1909000</v>
+        <v>4224000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1909000</v>
+        <v>4224000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2933000</v>
+        <v>4452000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2933000</v>
+        <v>4452000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1271000</v>
+        <v>4234000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1271000</v>
+        <v>4234000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1730000</v>
+        <v>5428000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1730000</v>
+        <v>5428000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1645000</v>
+        <v>5687000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1645000</v>
+        <v>5687000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1449000</v>
+        <v>1481000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1449000</v>
+        <v>1481000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2789000</v>
+        <v>1884000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2789000</v>
+        <v>1884000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1493000</v>
+        <v>3984000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1493000</v>
+        <v>3984000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1821000</v>
+        <v>1754000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1821000</v>
+        <v>1754000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1851000</v>
+        <v>2489000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1851000</v>
+        <v>2489000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3185000</v>
+        <v>1099000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3185000</v>
+        <v>1099000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2899000</v>
+        <v>1430000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2899000</v>
+        <v>1430000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4474000</v>
+        <v>1449000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4474000</v>
+        <v>1449000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3482000</v>
+        <v>1299000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3482000</v>
+        <v>1299000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2724000</v>
+        <v>2469000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2724000</v>
+        <v>2469000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3567000</v>
+        <v>1416000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3567000</v>
+        <v>1416000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2111000</v>
+        <v>1682000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2111000</v>
+        <v>1682000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4488000</v>
+        <v>1707000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4488000</v>
+        <v>1707000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>6009000</v>
+        <v>2977000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>6009000</v>
+        <v>2977000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4188000</v>
+        <v>2729000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4188000</v>
+        <v>2729000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>9078000</v>
+        <v>4094000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9078000</v>
+        <v>4094000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5751,30 +5751,30 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>5248000</v>
+        <v>2854000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5248000</v>
+        <v>2854000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5784,56 +5784,287 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3042000</v>
+        <v>2274000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3042000</v>
+        <v>2274000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>mg</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>cyberster</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>4653000</v>
+        <v>2919000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4653000</v>
+        <v>2919000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>RAV4</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2517000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>2517000</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
     </row>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,7 +1286,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1296,30 +1296,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1378000</v>
+        <v>1515000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1378000</v>
+        <v>1515000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1329,30 +1329,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1768000</v>
+        <v>1378000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1768000</v>
+        <v>1378000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1362,30 +1362,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1801000</v>
+        <v>1768000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1801000</v>
+        <v>1768000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1395,63 +1395,63 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2399000</v>
+        <v>1801000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2399000</v>
+        <v>1801000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1624000</v>
+        <v>2399000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1624000</v>
+        <v>2399000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1461,30 +1461,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2144000</v>
+        <v>1624000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2144000</v>
+        <v>1624000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1494,30 +1494,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1944000</v>
+        <v>2144000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1944000</v>
+        <v>2144000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1527,30 +1527,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2594000</v>
+        <v>1944000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2594000</v>
+        <v>1944000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1560,63 +1560,63 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1429000</v>
+        <v>2594000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1429000</v>
+        <v>2594000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2009000</v>
+        <v>1429000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2009000</v>
+        <v>1429000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1626,30 +1626,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3348000</v>
+        <v>2009000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3348000</v>
+        <v>2009000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1659,30 +1659,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2763000</v>
+        <v>3348000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2763000</v>
+        <v>3348000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1692,30 +1692,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3445000</v>
+        <v>2763000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3445000</v>
+        <v>2763000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1725,63 +1725,63 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VX Restyling</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4225000</v>
+        <v>3445000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4225000</v>
+        <v>3445000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i-JET</t>
+          <t>VX Restyling</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4173000</v>
+        <v>4225000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4173000</v>
+        <v>4225000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1791,30 +1791,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i-JOY</t>
+          <t>i-JET</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2597000</v>
+        <v>4173000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2597000</v>
+        <v>4173000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>i-JOY</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1944000</v>
+        <v>2597000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1944000</v>
+        <v>2597000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1857,30 +1857,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i-SKY</t>
+          <t>i-PRO</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3198000</v>
+        <v>1944000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3198000</v>
+        <v>1944000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1890,63 +1890,63 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i-SPACE</t>
+          <t>i-SKY</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2184000</v>
+        <v>3198000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2184000</v>
+        <v>3198000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>i-SPACE</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1593000</v>
+        <v>2184000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1593000</v>
+        <v>2184000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1567000</v>
+        <v>1593000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1567000</v>
+        <v>1593000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,30 +1989,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1862000</v>
+        <v>1567000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1862000</v>
+        <v>1567000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2022,63 +2022,63 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1997000</v>
+        <v>1862000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1997000</v>
+        <v>1862000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GA6</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1559000</v>
+        <v>1997000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1559000</v>
+        <v>1997000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,30 +2088,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>GA6</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2209000</v>
+        <v>1559000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2209000</v>
+        <v>1559000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1494000</v>
+        <v>2209000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1494000</v>
+        <v>2209000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1462000</v>
+        <v>1494000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1462000</v>
+        <v>1494000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2534000</v>
+        <v>1462000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2534000</v>
+        <v>1462000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2220,63 +2220,63 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3575000</v>
+        <v>2534000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3575000</v>
+        <v>2534000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2080000</v>
+        <v>3575000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2080000</v>
+        <v>3575000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2286,30 +2286,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1797000</v>
+        <v>2080000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1797000</v>
+        <v>2080000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1755000</v>
+        <v>1797000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1755000</v>
+        <v>1797000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1479000</v>
+        <v>1755000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1479000</v>
+        <v>1755000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1696000</v>
+        <v>1479000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1696000</v>
+        <v>1479000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1345000</v>
+        <v>1696000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1345000</v>
+        <v>1696000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2954000</v>
+        <v>1345000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2954000</v>
+        <v>1345000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2242000</v>
+        <v>2954000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2242000</v>
+        <v>2954000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1888000</v>
+        <v>2242000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1888000</v>
+        <v>2242000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1950000</v>
+        <v>1888000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1950000</v>
+        <v>1888000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,96 +2583,96 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2574000</v>
+        <v>1950000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2574000</v>
+        <v>1950000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2079000</v>
+        <v>2574000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2079000</v>
+        <v>2574000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1982000</v>
+        <v>2079000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1982000</v>
+        <v>2079000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,30 +2682,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2177000</v>
+        <v>1982000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2177000</v>
+        <v>1982000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1592000</v>
+        <v>2177000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1592000</v>
+        <v>2177000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1754000</v>
+        <v>1592000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1754000</v>
+        <v>1592000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1624000</v>
+        <v>1754000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1624000</v>
+        <v>1754000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1689000</v>
+        <v>1624000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1689000</v>
+        <v>1624000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2300000</v>
+        <v>1689000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2300000</v>
+        <v>1689000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2794000</v>
+        <v>2300000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2794000</v>
+        <v>2300000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1267000</v>
+        <v>2794000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1267000</v>
+        <v>2794000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1299000</v>
+        <v>1267000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1299000</v>
+        <v>1267000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,63 +2979,63 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1416000</v>
+        <v>1299000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1416000</v>
+        <v>1299000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3114000</v>
+        <v>1416000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3114000</v>
+        <v>1416000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,63 +3045,63 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HS5</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3504000</v>
+        <v>3114000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3504000</v>
+        <v>3114000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>HS5</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1618000</v>
+        <v>3504000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1618000</v>
+        <v>3504000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2625000</v>
+        <v>1618000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2625000</v>
+        <v>1618000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4257000</v>
+        <v>2625000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4257000</v>
+        <v>2625000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4453000</v>
+        <v>1741000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4453000</v>
+        <v>1741000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1268000</v>
+        <v>4257000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1268000</v>
+        <v>4257000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,162 +3243,162 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1923000</v>
+        <v>4453000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1923000</v>
+        <v>4453000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1365000</v>
+        <v>1268000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1365000</v>
+        <v>1268000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1137000</v>
+        <v>2135000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1137000</v>
+        <v>2135000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1425000</v>
+        <v>4590000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1425000</v>
+        <v>4590000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1559000</v>
+        <v>1923000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1559000</v>
+        <v>1923000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,30 +3408,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1614000</v>
+        <v>1365000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1614000</v>
+        <v>1365000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1722000</v>
+        <v>1137000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1722000</v>
+        <v>1137000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,228 +3474,228 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1884000</v>
+        <v>1425000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1884000</v>
+        <v>1425000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2047000</v>
+        <v>1559000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2047000</v>
+        <v>1559000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2859000</v>
+        <v>1614000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2859000</v>
+        <v>1614000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1618000</v>
+        <v>1722000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1618000</v>
+        <v>1722000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2443000</v>
+        <v>1884000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2443000</v>
+        <v>1884000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1669000</v>
+        <v>2047000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1669000</v>
+        <v>2047000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1944000</v>
+        <v>2859000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1944000</v>
+        <v>2859000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,162 +3705,162 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2210000</v>
+        <v>1618000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2210000</v>
+        <v>1618000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1253000</v>
+        <v>2443000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1253000</v>
+        <v>2443000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1919000</v>
+        <v>1669000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1919000</v>
+        <v>1669000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VS5 New</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1943000</v>
+        <v>1944000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1943000</v>
+        <v>1944000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2091000</v>
+        <v>2210000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2091000</v>
+        <v>2210000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,238 +3870,238 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VS7 New</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2112000</v>
+        <v>1253000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2112000</v>
+        <v>1253000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1427000</v>
+        <v>1919000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1427000</v>
+        <v>1919000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1455000</v>
+        <v>1943000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1455000</v>
+        <v>1943000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1635000</v>
+        <v>2091000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1635000</v>
+        <v>2091000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1949000</v>
+        <v>2112000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1949000</v>
+        <v>2112000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3819000</v>
+        <v>1427000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3819000</v>
+        <v>1427000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1589000</v>
+        <v>1455000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1589000</v>
+        <v>1455000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -4117,47 +4117,47 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1609000</v>
+        <v>1949000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1609000</v>
+        <v>1949000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2077000</v>
+        <v>3819000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2077000</v>
+        <v>3819000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>K5 New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2138000</v>
+        <v>1589000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2138000</v>
+        <v>1589000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,30 +4233,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4277000</v>
+        <v>1635000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4277000</v>
+        <v>1635000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1157000</v>
+        <v>1609000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1157000</v>
+        <v>1609000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1189000</v>
+        <v>2077000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1189000</v>
+        <v>2077000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1324000</v>
+        <v>2138000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1324000</v>
+        <v>2138000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1416000</v>
+        <v>4277000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1416000</v>
+        <v>4277000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1737000</v>
+        <v>1157000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1737000</v>
+        <v>1157000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2971000</v>
+        <v>1189000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2971000</v>
+        <v>1189000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3162000</v>
+        <v>1324000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3162000</v>
+        <v>1324000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1663000</v>
+        <v>1416000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1663000</v>
+        <v>1416000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,162 +4530,162 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2227000</v>
+        <v>1737000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2227000</v>
+        <v>1737000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>741000</v>
+        <v>2971000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>741000</v>
+        <v>2971000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>677000</v>
+        <v>3162000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>677000</v>
+        <v>3162000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>455000</v>
+        <v>1663000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>455000</v>
+        <v>1663000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1079000</v>
+        <v>2227000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1079000</v>
+        <v>2227000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1086000</v>
+        <v>741000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1086000</v>
+        <v>741000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>638000</v>
+        <v>677000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>638000</v>
+        <v>677000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>887000</v>
+        <v>455000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>887000</v>
+        <v>455000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>854000</v>
+        <v>1079000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>854000</v>
+        <v>1079000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4827,30 +4827,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1127000</v>
+        <v>1086000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1127000</v>
+        <v>1086000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1135000</v>
+        <v>638000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1135000</v>
+        <v>638000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4893,30 +4893,30 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1213000</v>
+        <v>887000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1213000</v>
+        <v>887000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4926,228 +4926,228 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>981000</v>
+        <v>854000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>981000</v>
+        <v>854000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1657000</v>
+        <v>1127000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1657000</v>
+        <v>1127000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1087000</v>
+        <v>1135000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1087000</v>
+        <v>1135000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3938000</v>
+        <v>1213000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3938000</v>
+        <v>1213000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4224000</v>
+        <v>981000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4224000</v>
+        <v>981000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4452000</v>
+        <v>1657000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4452000</v>
+        <v>1657000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4234000</v>
+        <v>1087000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4234000</v>
+        <v>1087000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5157,30 +5157,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5428000</v>
+        <v>3938000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5428000</v>
+        <v>3938000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5190,789 +5190,789 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5687000</v>
+        <v>4224000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5687000</v>
+        <v>4224000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1481000</v>
+        <v>4452000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1481000</v>
+        <v>4452000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1884000</v>
+        <v>4234000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1884000</v>
+        <v>4234000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3984000</v>
+        <v>5428000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3984000</v>
+        <v>5428000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1754000</v>
+        <v>5687000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1754000</v>
+        <v>5687000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2489000</v>
+        <v>1481000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2489000</v>
+        <v>1481000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1099000</v>
+        <v>1884000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1099000</v>
+        <v>1884000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1430000</v>
+        <v>3984000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1430000</v>
+        <v>3984000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1449000</v>
+        <v>1754000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1449000</v>
+        <v>1754000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1299000</v>
+        <v>1186000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/new-6/2019</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1299000</v>
+        <v>1186000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/new-6/2019</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2469000</v>
+        <v>2333000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2469000</v>
+        <v>2333000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1416000</v>
+        <v>2183000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1416000</v>
+        <v>2183000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1682000</v>
+        <v>2489000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1682000</v>
+        <v>2489000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1707000</v>
+        <v>1099000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1707000</v>
+        <v>1099000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2977000</v>
+        <v>1430000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2977000</v>
+        <v>1430000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2729000</v>
+        <v>1449000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2729000</v>
+        <v>1449000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4094000</v>
+        <v>1299000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4094000</v>
+        <v>1299000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2854000</v>
+        <v>2469000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2854000</v>
+        <v>2469000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2274000</v>
+        <v>1416000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2274000</v>
+        <v>1416000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2919000</v>
+        <v>1682000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2919000</v>
+        <v>1682000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1806000</v>
+        <v>1707000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1806000</v>
+        <v>1707000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3623000</v>
+        <v>2977000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3623000</v>
+        <v>2977000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>4786000</v>
+        <v>2729000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4786000</v>
+        <v>2729000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3394000</v>
+        <v>4094000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3394000</v>
+        <v>4094000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5982,30 +5982,30 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>6942000</v>
+        <v>2854000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>6942000</v>
+        <v>2854000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6015,54 +6015,285 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>4204000</v>
+        <v>2274000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4204000</v>
+        <v>2274000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2919000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>2919000</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D178" t="n">
         <v>2517000</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F171" t="n">
+      <c r="F178" t="n">
         <v>2517000</v>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1186000</v>
+        <v>2088000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/new-6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1186000</v>
+        <v>2088000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/new-6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -603,96 +603,96 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>X75</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1944000</v>
+        <v>2015000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x75/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/x7/suv</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1944000</v>
+        <v>2015000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x75/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BAIC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Seagull</t>
+          <t>X75</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1417000</v>
+        <v>1944000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/byd/seagull/1</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/x75/suv</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1417000</v>
+        <v>1944000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/byd/seagull/1</t>
+          <t>http://saratov-avtohous.ru/katalog/baic/x75/suv</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Belgee</t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Seagull</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1489000</v>
+        <v>1417000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x50/1</t>
+          <t>http://saratov-avtohous.ru/katalog/byd/seagull/1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1489000</v>
+        <v>1417000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x50/1</t>
+          <t>http://saratov-avtohous.ru/katalog/byd/seagull/1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -702,63 +702,63 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1737000</v>
+        <v>1489000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x70/1</t>
+          <t>http://saratov-avtohous.ru/katalog/belgee/x50/1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1737000</v>
+        <v>1489000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x70/1</t>
+          <t>http://saratov-avtohous.ru/katalog/belgee/x50/1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1138000</v>
+        <v>1737000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/belgee/x70/1</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1138000</v>
+        <v>1737000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/belgee/x70/1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -768,30 +768,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS35 Plus</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1255000</v>
+        <v>1138000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1255000</v>
+        <v>1138000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -801,30 +801,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS35 Plus</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1521000</v>
+        <v>1255000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1521000</v>
+        <v>1255000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -834,30 +834,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1423000</v>
+        <v>1521000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1423000</v>
+        <v>1521000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,30 +867,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1709000</v>
+        <v>1423000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1709000</v>
+        <v>1423000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -900,30 +900,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS75 Plus</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1667000</v>
+        <v>1709000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1667000</v>
+        <v>1709000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -933,30 +933,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS75 Plus</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1605000</v>
+        <v>1667000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1605000</v>
+        <v>1667000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -966,30 +966,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2444000</v>
+        <v>1605000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2444000</v>
+        <v>1605000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,30 +999,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2762000</v>
+        <v>2444000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2762000</v>
+        <v>2444000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1032,30 +1032,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1514000</v>
+        <v>2762000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1514000</v>
+        <v>2762000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,30 +1065,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2262000</v>
+        <v>1514000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2262000</v>
+        <v>1514000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1098,30 +1098,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1813000</v>
+        <v>2262000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1813000</v>
+        <v>2262000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1131,30 +1131,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2398000</v>
+        <v>1813000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2398000</v>
+        <v>1813000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1164,30 +1164,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1709000</v>
+        <v>2398000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1709000</v>
+        <v>2398000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1197,30 +1197,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1930000</v>
+        <v>1709000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1930000</v>
+        <v>1709000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1230,63 +1230,63 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1878000</v>
+        <v>1930000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1878000</v>
+        <v>1930000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1820000</v>
+        <v>1878000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1820000</v>
+        <v>1878000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1296,30 +1296,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1515000</v>
+        <v>1820000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1515000</v>
+        <v>1820000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1329,30 +1329,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1378000</v>
+        <v>1515000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1378000</v>
+        <v>1515000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1362,30 +1362,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1768000</v>
+        <v>1313000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1768000</v>
+        <v>1313000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1395,30 +1395,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1801000</v>
+        <v>1703000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1801000</v>
+        <v>1703000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,63 +1428,63 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2399000</v>
+        <v>1801000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2399000</v>
+        <v>1801000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1624000</v>
+        <v>2399000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1624000</v>
+        <v>2399000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1494,30 +1494,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2144000</v>
+        <v>1624000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2144000</v>
+        <v>1624000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1527,30 +1527,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1944000</v>
+        <v>2144000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1944000</v>
+        <v>2144000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1560,30 +1560,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2594000</v>
+        <v>1944000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2594000</v>
+        <v>1944000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1593,63 +1593,63 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1429000</v>
+        <v>2594000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1429000</v>
+        <v>2594000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2009000</v>
+        <v>1429000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2009000</v>
+        <v>1429000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1659,30 +1659,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3348000</v>
+        <v>2009000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3348000</v>
+        <v>2009000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1692,30 +1692,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2763000</v>
+        <v>3348000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2763000</v>
+        <v>3348000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1725,30 +1725,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3445000</v>
+        <v>2763000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3445000</v>
+        <v>2763000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1758,63 +1758,63 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VX Restyling</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4225000</v>
+        <v>3445000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4225000</v>
+        <v>3445000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i-JET</t>
+          <t>VX Restyling</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4173000</v>
+        <v>4225000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4173000</v>
+        <v>4225000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i-JOY</t>
+          <t>i-JET</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2597000</v>
+        <v>4173000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2597000</v>
+        <v>4173000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1857,30 +1857,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>i-JOY</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1944000</v>
+        <v>2597000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1944000</v>
+        <v>2597000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1890,30 +1890,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i-SKY</t>
+          <t>i-PRO</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3198000</v>
+        <v>1944000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3198000</v>
+        <v>1944000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1923,63 +1923,63 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i-SPACE</t>
+          <t>i-SKY</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2184000</v>
+        <v>3198000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2184000</v>
+        <v>3198000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>i-SPACE</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1593000</v>
+        <v>2184000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1593000</v>
+        <v>2184000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,30 +1989,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1567000</v>
+        <v>1593000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1567000</v>
+        <v>1593000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1862000</v>
+        <v>1567000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1862000</v>
+        <v>1567000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2055,63 +2055,63 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1997000</v>
+        <v>1862000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1997000</v>
+        <v>1862000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GA6</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1559000</v>
+        <v>1997000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1559000</v>
+        <v>1997000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>GA6</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2209000</v>
+        <v>1559000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2209000</v>
+        <v>1559000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1494000</v>
+        <v>2209000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1494000</v>
+        <v>2209000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1462000</v>
+        <v>1494000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1462000</v>
+        <v>1494000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2220,30 +2220,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2534000</v>
+        <v>1462000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2534000</v>
+        <v>1462000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2253,63 +2253,63 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3575000</v>
+        <v>2534000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3575000</v>
+        <v>2534000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2080000</v>
+        <v>3575000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2080000</v>
+        <v>3575000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1797000</v>
+        <v>2080000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1797000</v>
+        <v>2080000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1755000</v>
+        <v>1797000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1755000</v>
+        <v>1797000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1479000</v>
+        <v>1755000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1479000</v>
+        <v>1755000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1696000</v>
+        <v>1479000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1696000</v>
+        <v>1479000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1345000</v>
+        <v>1696000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1345000</v>
+        <v>1696000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2954000</v>
+        <v>1345000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2954000</v>
+        <v>1345000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2242000</v>
+        <v>2599000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2242000</v>
+        <v>2599000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Monjaro Restyling</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1888000</v>
+        <v>2658000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1888000</v>
+        <v>2658000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1950000</v>
+        <v>2177000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1950000</v>
+        <v>2177000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,129 +2616,129 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2574000</v>
+        <v>1888000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2574000</v>
+        <v>1888000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2079000</v>
+        <v>1950000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2079000</v>
+        <v>1950000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1982000</v>
+        <v>2574000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1982000</v>
+        <v>2574000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2177000</v>
+        <v>2079000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2177000</v>
+        <v>2079000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1592000</v>
+        <v>1982000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1592000</v>
+        <v>1982000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1754000</v>
+        <v>2177000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1754000</v>
+        <v>2177000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1624000</v>
+        <v>1592000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1624000</v>
+        <v>1592000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1689000</v>
+        <v>1754000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1689000</v>
+        <v>1754000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2300000</v>
+        <v>1624000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2300000</v>
+        <v>1624000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2794000</v>
+        <v>1689000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2794000</v>
+        <v>1689000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1267000</v>
+        <v>2300000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1267000</v>
+        <v>2300000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,30 +2979,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1299000</v>
+        <v>2794000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1299000</v>
+        <v>2794000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,162 +3012,162 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1416000</v>
+        <v>1267000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1416000</v>
+        <v>1267000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3114000</v>
+        <v>1299000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3114000</v>
+        <v>1299000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HS5</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3504000</v>
+        <v>1416000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3504000</v>
+        <v>1416000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1618000</v>
+        <v>3114000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1618000</v>
+        <v>3114000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>HS5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2625000</v>
+        <v>3504000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2625000</v>
+        <v>3504000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1741000</v>
+        <v>1618000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1741000</v>
+        <v>1618000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4257000</v>
+        <v>2625000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4257000</v>
+        <v>2625000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,30 +3243,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4453000</v>
+        <v>1741000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4453000</v>
+        <v>1741000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,30 +3276,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Mufasa</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1268000</v>
+        <v>2138000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1268000</v>
+        <v>2138000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2135000</v>
+        <v>4257000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2135000</v>
+        <v>4257000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,30 +3342,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4590000</v>
+        <v>4453000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4590000</v>
+        <v>4453000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,162 +3375,162 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1923000</v>
+        <v>1268000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1923000</v>
+        <v>1268000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1365000</v>
+        <v>2135000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1365000</v>
+        <v>2135000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1137000</v>
+        <v>4590000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1137000</v>
+        <v>4590000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1425000</v>
+        <v>2197000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1425000</v>
+        <v>2197000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1559000</v>
+        <v>2435000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1559000</v>
+        <v>2435000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1614000</v>
+        <v>1365000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1614000</v>
+        <v>1365000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1722000</v>
+        <v>1137000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1722000</v>
+        <v>1137000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,228 +3606,228 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1884000</v>
+        <v>1425000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1884000</v>
+        <v>1425000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2047000</v>
+        <v>1559000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2047000</v>
+        <v>1559000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2859000</v>
+        <v>1614000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2859000</v>
+        <v>1614000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1618000</v>
+        <v>1722000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1618000</v>
+        <v>1722000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2443000</v>
+        <v>1884000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2443000</v>
+        <v>1884000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1669000</v>
+        <v>2047000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1669000</v>
+        <v>2047000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1944000</v>
+        <v>2859000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1944000</v>
+        <v>2859000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,162 +3837,162 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2210000</v>
+        <v>1618000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2210000</v>
+        <v>1618000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1253000</v>
+        <v>2443000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1253000</v>
+        <v>2443000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1919000</v>
+        <v>1669000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1919000</v>
+        <v>1669000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VS5 New</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1943000</v>
+        <v>1944000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1943000</v>
+        <v>1944000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2091000</v>
+        <v>2210000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2091000</v>
+        <v>2210000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,238 +4002,238 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VS7 New</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2112000</v>
+        <v>1253000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2112000</v>
+        <v>1253000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1427000</v>
+        <v>1919000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1427000</v>
+        <v>1919000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1455000</v>
+        <v>1943000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1455000</v>
+        <v>1943000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1635000</v>
+        <v>2091000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1635000</v>
+        <v>2091000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1949000</v>
+        <v>2112000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1949000</v>
+        <v>2112000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3819000</v>
+        <v>1169000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3819000</v>
+        <v>1169000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1589000</v>
+        <v>1455000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1589000</v>
+        <v>1455000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -4249,47 +4249,47 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1609000</v>
+        <v>1949000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1609000</v>
+        <v>1949000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2077000</v>
+        <v>3819000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2077000</v>
+        <v>3819000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>K5 New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2138000</v>
+        <v>1589000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2138000</v>
+        <v>1589000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4277000</v>
+        <v>1635000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4277000</v>
+        <v>1635000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1157000</v>
+        <v>1609000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1157000</v>
+        <v>1609000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1189000</v>
+        <v>2077000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1189000</v>
+        <v>2077000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1324000</v>
+        <v>2138000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1324000</v>
+        <v>2138000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1416000</v>
+        <v>4277000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1416000</v>
+        <v>4277000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1737000</v>
+        <v>1157000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1737000</v>
+        <v>1157000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2971000</v>
+        <v>1189000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2971000</v>
+        <v>1189000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3162000</v>
+        <v>1324000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3162000</v>
+        <v>1324000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1663000</v>
+        <v>1416000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1663000</v>
+        <v>1416000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,195 +4662,195 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2227000</v>
+        <v>1737000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2227000</v>
+        <v>1737000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>741000</v>
+        <v>2971000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>741000</v>
+        <v>2971000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>677000</v>
+        <v>3162000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>677000</v>
+        <v>3162000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>455000</v>
+        <v>1663000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>455000</v>
+        <v>1663000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1079000</v>
+        <v>2227000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1079000</v>
+        <v>2227000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1086000</v>
+        <v>2583000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1086000</v>
+        <v>2583000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>638000</v>
+        <v>812000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>638000</v>
+        <v>812000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4893,30 +4893,30 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>887000</v>
+        <v>734000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>887000</v>
+        <v>734000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4926,30 +4926,30 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>854000</v>
+        <v>645000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>854000</v>
+        <v>645000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4959,30 +4959,30 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1127000</v>
+        <v>1228000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1127000</v>
+        <v>1228000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4992,30 +4992,30 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1135000</v>
+        <v>1236000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1135000</v>
+        <v>1236000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5025,30 +5025,30 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1213000</v>
+        <v>685000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1213000</v>
+        <v>685000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5058,261 +5058,261 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>981000</v>
+        <v>1048000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>981000</v>
+        <v>1048000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1657000</v>
+        <v>951000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1657000</v>
+        <v>951000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1087000</v>
+        <v>1297000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1087000</v>
+        <v>1297000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3938000</v>
+        <v>1215000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3938000</v>
+        <v>1215000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4224000</v>
+        <v>1393000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4224000</v>
+        <v>1393000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4452000</v>
+        <v>1108000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4452000</v>
+        <v>1108000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4234000</v>
+        <v>1657000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4234000</v>
+        <v>1657000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5428000</v>
+        <v>1087000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>5428000</v>
+        <v>1087000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5322,332 +5322,332 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5687000</v>
+        <v>4949000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5687000</v>
+        <v>4949000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1481000</v>
+        <v>4949000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1481000</v>
+        <v>4949000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1884000</v>
+        <v>5229000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1884000</v>
+        <v>5229000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3984000</v>
+        <v>4961000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>3984000</v>
+        <v>4961000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1754000</v>
+        <v>6430000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1754000</v>
+        <v>6430000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2088000</v>
+        <v>6749000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2088000</v>
+        <v>6749000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2333000</v>
+        <v>1481000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2333000</v>
+        <v>1481000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2183000</v>
+        <v>1884000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2183000</v>
+        <v>1884000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2489000</v>
+        <v>3984000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2489000</v>
+        <v>3984000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1099000</v>
+        <v>1754000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1099000</v>
+        <v>1754000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5656,521 +5656,521 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1430000</v>
+        <v>2088000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1430000</v>
+        <v>2088000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1449000</v>
+        <v>2333000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1449000</v>
+        <v>2333000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1299000</v>
+        <v>2183000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1299000</v>
+        <v>2183000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2469000</v>
+        <v>2489000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2469000</v>
+        <v>2489000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1416000</v>
+        <v>2593000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1416000</v>
+        <v>2593000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1682000</v>
+        <v>1099000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1682000</v>
+        <v>1099000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1707000</v>
+        <v>1430000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1707000</v>
+        <v>1430000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2977000</v>
+        <v>1449000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2977000</v>
+        <v>1449000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2729000</v>
+        <v>1299000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2729000</v>
+        <v>1299000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>4094000</v>
+        <v>2469000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4094000</v>
+        <v>2469000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2854000</v>
+        <v>1416000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2854000</v>
+        <v>1416000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2274000</v>
+        <v>1559000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2274000</v>
+        <v>1559000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2919000</v>
+        <v>1559000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2919000</v>
+        <v>1559000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1806000</v>
+        <v>2977000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1806000</v>
+        <v>2977000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3623000</v>
+        <v>2729000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>3623000</v>
+        <v>2729000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4786000</v>
+        <v>4094000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4786000</v>
+        <v>4094000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6180,30 +6180,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>3394000</v>
+        <v>2854000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3394000</v>
+        <v>2854000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6213,30 +6213,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6942000</v>
+        <v>2274000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>6942000</v>
+        <v>2274000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6246,54 +6246,285 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4204000</v>
+        <v>2919000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4204000</v>
+        <v>2919000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Camry New</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>3054000</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>3054000</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>2517000</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="D185" t="n">
+        <v>3184000</v>
+      </c>
+      <c r="E185" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F178" t="n">
-        <v>2517000</v>
-      </c>
-      <c r="G178" t="inlineStr">
+      <c r="F185" t="n">
+        <v>3184000</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>saratov-avtohous.ru_price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>saratov-avtohous.ru</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>saratov-avtohous.ru_price</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1138000</v>
+        <v>1130000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1138000</v>
+        <v>1130000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1521000</v>
+        <v>1568000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1521000</v>
+        <v>1568000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1709000</v>
+        <v>1723000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1709000</v>
+        <v>1723000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1667000</v>
+        <v>1760000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1667000</v>
+        <v>1760000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2444000</v>
+        <v>2291000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2444000</v>
+        <v>2291000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2762000</v>
+        <v>2624000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2762000</v>
+        <v>2624000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1514000</v>
+        <v>1494000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1514000</v>
+        <v>1494000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2262000</v>
+        <v>1673000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2262000</v>
+        <v>1673000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1813000</v>
+        <v>1772000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1813000</v>
+        <v>1772000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2398000</v>
+        <v>2390000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2398000</v>
+        <v>2390000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1709000</v>
+        <v>1624000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1709000</v>
+        <v>1624000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1930000</v>
+        <v>1834000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1930000</v>
+        <v>1834000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1878000</v>
+        <v>1883000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1878000</v>
+        <v>1883000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1515000</v>
+        <v>1439000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1515000</v>
+        <v>1439000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1313000</v>
+        <v>1186000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1313000</v>
+        <v>1186000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1703000</v>
+        <v>1556000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1703000</v>
+        <v>1556000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1801000</v>
+        <v>1686000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1801000</v>
+        <v>1686000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2399000</v>
+        <v>2093000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2399000</v>
+        <v>2093000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2184000</v>
+        <v>1999000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2184000</v>
+        <v>1999000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5751,30 +5751,30 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2489000</v>
+        <v>2274000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2489000</v>
+        <v>2274000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5784,591 +5784,591 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2593000</v>
+        <v>2489000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2593000</v>
+        <v>2489000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1099000</v>
+        <v>2593000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1099000</v>
+        <v>2593000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1430000</v>
+        <v>2723000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1430000</v>
+        <v>2723000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1449000</v>
+        <v>1099000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1449000</v>
+        <v>1099000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1299000</v>
+        <v>1430000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1299000</v>
+        <v>1430000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2469000</v>
+        <v>1449000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2469000</v>
+        <v>1449000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1416000</v>
+        <v>1299000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1416000</v>
+        <v>1299000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1559000</v>
+        <v>1579000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1559000</v>
+        <v>1579000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1559000</v>
+        <v>2469000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1559000</v>
+        <v>2469000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2977000</v>
+        <v>1416000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2977000</v>
+        <v>1416000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2729000</v>
+        <v>1559000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2729000</v>
+        <v>1559000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4094000</v>
+        <v>1559000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4094000</v>
+        <v>1559000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2854000</v>
+        <v>2529000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2854000</v>
+        <v>2529000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2274000</v>
+        <v>2853000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2274000</v>
+        <v>2853000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2919000</v>
+        <v>2372000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2919000</v>
+        <v>2372000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3054000</v>
+        <v>2977000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3054000</v>
+        <v>2977000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1806000</v>
+        <v>2729000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1806000</v>
+        <v>2729000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3623000</v>
+        <v>4094000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3623000</v>
+        <v>4094000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6378,30 +6378,30 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4786000</v>
+        <v>2854000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4786000</v>
+        <v>2854000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6411,30 +6411,30 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3394000</v>
+        <v>2274000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3394000</v>
+        <v>2274000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6444,30 +6444,30 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>6942000</v>
+        <v>2919000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>6942000</v>
+        <v>2919000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6477,54 +6477,252 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>4204000</v>
+        <v>3054000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4204000</v>
+        <v>3054000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>1806000</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Fortuner</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>3623000</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Highlander</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>4786000</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Hilux</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>3394000</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Land Cruiser 300</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>6942000</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D191" t="n">
         <v>3184000</v>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F185" t="n">
+      <c r="F191" t="n">
         <v>3184000</v>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2300000</v>
+        <v>2404000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2300000</v>
+        <v>2404000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:K260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1709940</v>
+        <v>1739940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1709940</v>
+        <v>1739940</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1829940</v>
+        <v>1834000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/changan/uni-t/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1829940</v>
+        <v>1841940</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1152000</v>
+        <v>1182000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1152000</v>
+        <v>1182000</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1830,30 +1830,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Plug-In-Hybrid</t>
+          <t>Tiggo 8 Pro Max Restyling</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2910000</v>
+        <v>2038000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-plug-in-hybrid/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>2910000</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-plug-in-hybrid/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/1-restyling</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2038000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1863,30 +1863,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro e+ Hybrid</t>
+          <t>Tiggo 8 Pro Plug-In-Hybrid</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2958000</v>
+        <v>2910000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-e+-hybrid/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-plug-in-hybrid/i/suv-5d</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2958000</v>
+        <v>2910000</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-e+-hybrid/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-plug-in-hybrid/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1896,63 +1896,63 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tiggo 9</t>
+          <t>Tiggo 8 Pro e+ Hybrid</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2933000</v>
+        <v>2958000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2933000</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
+          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-e+-hybrid/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>2958000</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/chery/tiggo-8pro-e+-hybrid/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 9</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>572340</v>
+        <v>2933000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chevrolet/cobalt/ii/sedan</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>572340</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/chevrolet/cobalt/ii/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2933000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1962,30 +1962,30 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chevrolet/nexia/i/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/chevrolet/cobalt/ii/sedan</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chevrolet/nexia/i/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/chevrolet/cobalt/ii/sedan</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,71 +1995,63 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chevrolet/spark/iii/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/chevrolet/nexia/i/sedan</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/chevrolet/spark/iii/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/chevrolet/nexia/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1499400</v>
+        <v>570540</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/dfm/580/ii/suv-5d</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1624000</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>https://autodealer-saratov.ru/auto/chevrolet/spark/iii/hatchback-5d</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1499400</v>
+        <v>570540</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/dfm/580/ii/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/chevrolet/spark/iii/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2069,30 +2061,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>737400</v>
+        <v>1499400</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/dfm/ax7/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/dfm/580/ii/suv-5d</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1624000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>737400</v>
+        <v>1499400</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/dfm/ax7/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/dfm/580/ii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2102,30 +2102,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2144000</v>
+        <v>737400</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>2144000</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>https://autodealer-saratov.ru/auto/dfm/ax7/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>737400</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/dfm/ax7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2135,30 +2135,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1944000</v>
+        <v>2144000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1944000</v>
+        <v>2144000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2168,30 +2168,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2594000</v>
+        <v>1944000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2594000</v>
+        <v>1944000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2201,63 +2201,63 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1429000</v>
+        <v>2594000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1429000</v>
+        <v>2594000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2028000</v>
+        <v>1429000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/lx/i-rest/suv-5d</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>2028000</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/lx/i-rest/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1429000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2267,30 +2267,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2009000</v>
+        <v>2028000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2009000</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>https://autodealer-saratov.ru/auto/exeed/lx/i-rest/suv-5d</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>2028000</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/exeed/lx/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2300,38 +2300,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2850000</v>
+        <v>2009000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/rx/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3348000</v>
+        <v>2009000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>2850000</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/rx/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2341,30 +2333,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2286000</v>
+        <v>2850000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/txl/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/exeed/rx/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3348000</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>2286000</v>
+        <v>2850000</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/txl/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/exeed/rx/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2374,30 +2374,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2763000</v>
+        <v>2286000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2763000</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>https://autodealer-saratov.ru/auto/exeed/txl/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>2286000</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/exeed/txl/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2407,38 +2407,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2946000</v>
+        <v>2763000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/vx/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3445000</v>
+        <v>2763000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>2946000</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/exeed/vx/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2448,63 +2440,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VX Restyling</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4225000</v>
+        <v>2946000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/exeed/vx/i/suv-5d</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4225000</v>
+        <v>3445000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>2946000</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/exeed/vx/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>i-JET</t>
+          <t>VX Restyling</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4173000</v>
+        <v>4225000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4173000</v>
+        <v>4225000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2514,30 +2514,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>i-JOY</t>
+          <t>i-JET</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2597000</v>
+        <v>4173000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2597000</v>
+        <v>4173000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2547,30 +2547,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>i-JOY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1944000</v>
+        <v>2597000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1944000</v>
+        <v>2597000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2580,30 +2580,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>i-SKY</t>
+          <t>i-PRO</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3198000</v>
+        <v>1944000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3198000</v>
+        <v>1944000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2613,71 +2613,63 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>i-SPACE</t>
+          <t>i-SKY</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1999000</v>
+        <v>3198000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1999000</v>
+        <v>3198000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>i-SPACE</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1424400</v>
+        <v>1999000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/bestune-b70/i/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1593000</v>
+        <v>1999000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>1424400</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/faw/bestune-b70/i/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2687,38 +2679,38 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1446600</v>
+        <v>1424400</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/bestune-t55/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/faw/bestune-b70/i/liftback</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1567000</v>
+        <v>1593000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1446600</v>
+        <v>1424400</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/bestune-t55/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/faw/bestune-b70/i/liftback</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2728,38 +2720,38 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1718400</v>
+        <v>1446600</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/bestune-t77/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/faw/bestune-t55/i/suv-5d</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1862000</v>
+        <v>1567000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1718400</v>
+        <v>1446600</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/bestune-t77/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/faw/bestune-t55/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2769,30 +2761,38 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1997000</v>
+        <v>1718400</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>https://autodealer-saratov.ru/auto/faw/bestune-t77/i/suv-5d</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1997000</v>
+        <v>1862000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1718400</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/faw/bestune-t77/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2802,30 +2802,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>961200</v>
+        <v>1997000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/x40/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>961200</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/faw/x40/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1997000</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2835,63 +2835,63 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>904800</v>
+        <v>961200</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/x80/i-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/faw/x40/i/suv-5d</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>904800</v>
+        <v>961200</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/faw/x80/i-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/faw/x40/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GA6</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1559000</v>
+        <v>904800</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1559000</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>https://autodealer-saratov.ru/auto/faw/x80/i-rest/suv-5d</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>904800</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/faw/x80/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2901,30 +2901,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>GA6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2209000</v>
+        <v>1559000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2209000</v>
+        <v>1559000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2934,30 +2934,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1494000</v>
+        <v>2209000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1494000</v>
+        <v>2209000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2967,30 +2967,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1462000</v>
+        <v>1494000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1462000</v>
+        <v>1494000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3000,30 +3000,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2534000</v>
+        <v>1462000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2534000</v>
+        <v>1462000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3033,104 +3033,96 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3575000</v>
+        <v>1884000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3575000</v>
+        <v>1884000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1185594</v>
+        <v>2534000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/atlas/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>1185594</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/geely/atlas/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2534000</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2054514</v>
+        <v>3575000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/atlas/ii/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2080000</v>
+        <v>3575000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>2054514</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/geely/atlas/ii/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3140,38 +3132,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1702194</v>
+        <v>1185594</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/atlas-pro/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1797000</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>https://autodealer-saratov.ru/auto/geely/atlas/i/suv-5d</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1702194</v>
+        <v>1185594</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/atlas-pro/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/geely/atlas/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3181,30 +3165,38 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1755000</v>
+        <v>2054514</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>https://autodealer-saratov.ru/auto/geely/atlas/ii/suv-5d</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1755000</v>
+        <v>2080000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>2054514</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/geely/atlas/ii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3214,38 +3206,38 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1196994</v>
+        <v>1702194</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/coolray/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/geely/atlas-pro/i/suv-5d</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1479000</v>
+        <v>1797000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1196994</v>
+        <v>1702194</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/coolray/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/geely/atlas-pro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3255,30 +3247,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1627914</v>
+        <v>1755000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/coolray/i-restyling/suv-5d</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>1627914</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/geely/coolray/i-restyling/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3288,30 +3280,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1566000</v>
+        <v>1196994</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/geely/coolray/i/suv-5d</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1566000</v>
+        <v>1479000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1196994</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/geely/coolray/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3321,38 +3321,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1294794</v>
+        <v>1627914</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/emgrand/ii/sedan</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1345000</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>https://autodealer-saratov.ru/auto/geely/coolray/i-restyling/suv-5d</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1294794</v>
+        <v>1627914</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/emgrand/ii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/geely/coolray/i-restyling/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3362,38 +3354,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2599000</v>
+        <v>1566000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/monjaro/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2599000</v>
+        <v>1566000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>2599000</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/geely/monjaro/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3403,30 +3387,38 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Monjaro Restyling</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3533000</v>
+        <v>1294794</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/geely/emgrand/ii/sedan</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3533000</v>
+        <v>1345000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1294794</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/geely/emgrand/ii/sedan</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3436,38 +3428,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2177000</v>
+        <v>2599000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/okavango/i-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/geely/monjaro/i/suv-5d</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2177000</v>
+        <v>2599000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2177000</v>
+        <v>2599000</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/okavango/i-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/geely/monjaro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3477,30 +3469,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Monjaro Restyling</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1888000</v>
+        <v>3533000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1888000</v>
+        <v>3533000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3510,30 +3502,38 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1950000</v>
+        <v>2177000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>https://autodealer-saratov.ru/auto/geely/okavango/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1950000</v>
+        <v>2177000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2177000</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/geely/okavango/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3543,30 +3543,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tugella</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2375994</v>
+        <v>1888000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/geely/tugella/i-restyling/suv-5d</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>2375994</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/geely/tugella/i-restyling/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1888000</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3576,186 +3576,170 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2574000</v>
+        <v>1950000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2574000</v>
+        <v>1950000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Tugella</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2069400</v>
+        <v>2375994</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/great-wall/poer/i/pickup</t>
+          <t>https://autodealer-saratov.ru/auto/geely/tugella/i-restyling/suv-5d</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2069400</v>
+        <v>2375994</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/great-wall/poer/i/pickup</t>
+          <t>https://autodealer-saratov.ru/auto/geely/tugella/i-restyling/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1919400</v>
+        <v>2574000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/great-wall/poer-kingkong/i/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2079000</v>
+        <v>2574000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>1919400</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/great-wall/poer-kingkong/i/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1829400</v>
+        <v>2129400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1982000</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>https://autodealer-saratov.ru/auto/great-wall/poer/i/pickup</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1829400</v>
+        <v>2129400</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/great-wall/poer/i/pickup</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2009400</v>
+        <v>1979400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/x</t>
+          <t>https://autodealer-saratov.ru/auto/great-wall/poer-kingkong/i/pickup</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2177000</v>
+        <v>2079000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2009400</v>
+        <v>1979400</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/x</t>
+          <t>https://autodealer-saratov.ru/auto/great-wall/poer-kingkong/i/pickup</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3765,38 +3749,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1469400</v>
+        <v>1829400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/f_7/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/suv-5d</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1592000</v>
+        <v>1982000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1469400</v>
+        <v>1829400</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/f_7/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3806,30 +3790,38 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1754000</v>
+        <v>2009400</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/x</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1754000</v>
+        <v>2177000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>2009400</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/haval/dargo/i/x</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3839,30 +3831,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1499400</v>
+        <v>1469400</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/f_7_x/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/f_7/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1592000</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1499400</v>
+        <v>1469400</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/f_7_x/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/f_7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3872,30 +3872,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1624000</v>
+        <v>1754000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1624000</v>
+        <v>1754000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3905,38 +3905,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1589400</v>
+        <v>1499400</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/h3/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1689000</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>https://autodealer-saratov.ru/auto/haval/f_7_x/i/suv-5d</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1589400</v>
+        <v>1499400</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/h3/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/f_7_x/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3946,38 +3938,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>857400</v>
+        <v>1624000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/h5/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2404000</v>
+        <v>1624000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>857400</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/haval/h5/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3987,38 +3971,38 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2459400</v>
+        <v>1679400</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/h9/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/h3/i/suv-5d</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2794000</v>
+        <v>1689000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2459400</v>
+        <v>1679400</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/h9/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/h3/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4028,38 +4012,38 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1169400</v>
+        <v>857400</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/jolion/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/h5/i/suv-5d</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1267000</v>
+        <v>2404000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1169400</v>
+        <v>857400</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/jolion/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/h5/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4069,30 +4053,38 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1199400</v>
+        <v>2459400</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/jolion/i-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/h9/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>2794000</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1199400</v>
+        <v>2459400</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/jolion/i-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/h9/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4102,30 +4094,38 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1299000</v>
+        <v>1169400</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/haval/jolion/i/suv-5d</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1299000</v>
+        <v>1267000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1169400</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/haval/jolion/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4135,178 +4135,170 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1307400</v>
+        <v>1199400</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/m6/ii/suv-5d</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>1416000</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>https://autodealer-saratov.ru/auto/haval/jolion/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1307400</v>
+        <v>1199400</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/haval/m6/ii/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/haval/jolion/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3114000</v>
+        <v>1299000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3114000</v>
+        <v>1299000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HS5</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3504000</v>
+        <v>1367400</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/haval/m6/ii/suv-5d</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3504000</v>
+        <v>1416000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1367400</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/haval/m6/ii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1115400</v>
+        <v>3114000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/creta/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1618000</v>
+        <v>3114000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>1115400</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/creta/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>HS5</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2625000</v>
+        <v>3504000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2625000</v>
+        <v>3504000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4316,38 +4308,38 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1289400</v>
+        <v>1115400</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/elantra/vii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/creta/i/suv-5d</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1741000</v>
+        <v>1618000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1289400</v>
+        <v>1115400</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/elantra/vii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/creta/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4357,30 +4349,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mufasa</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2138000</v>
+        <v>2625000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2138000</v>
+        <v>2625000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4390,38 +4382,38 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3161400</v>
+        <v>1289400</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/palisade/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/elantra/vii/sedan</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4257000</v>
+        <v>1741000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>3161400</v>
+        <v>1289400</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/palisade/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/elantra/vii/sedan</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4431,38 +4423,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2381400</v>
+        <v>1819000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/santa_fe/iv/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4453000</v>
+        <v>1819000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>2381400</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/santa_fe/iv/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4472,38 +4456,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Mufasa</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>844800</v>
+        <v>2138000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/solaris/ii-restyling/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1268000</v>
+        <v>2138000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>844800</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/solaris/ii-restyling/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4513,38 +4489,38 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1661400</v>
+        <v>3161400</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/sonata/viii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/palisade/i/suv-5d</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2135000</v>
+        <v>4257000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1661400</v>
+        <v>3161400</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/sonata/viii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/palisade/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4554,38 +4530,38 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2459400</v>
+        <v>2381400</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/staria/i/minivan</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/santa_fe/iv/suv-5d</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4590000</v>
+        <v>4453000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2459400</v>
+        <v>2381400</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/staria/i/minivan</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/santa_fe/iv/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4595,38 +4571,38 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1649400</v>
+        <v>844800</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/solaris/ii-restyling/sedan</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2197000</v>
+        <v>1268000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1649400</v>
+        <v>844800</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/solaris/ii-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4636,30 +4612,38 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Tucson N Line</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2387400</v>
+        <v>1661400</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/n-line</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/sonata/viii/sedan</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2135000</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>2387400</v>
+        <v>1661400</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/n-line</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/sonata/viii/sedan</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4669,137 +4653,145 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2435000</v>
+        <v>2459400</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/staria/i/minivan</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2435000</v>
+        <v>4590000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>2459400</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/hyundai/staria/i/minivan</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1260000</v>
+        <v>1649400</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jac/j7/i/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/suv-5d</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1365000</v>
+        <v>2197000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1260000</v>
+        <v>1649400</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jac/j7/i/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Tucson N Line</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1137000</v>
+        <v>2387400</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>1137000</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/n-line</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>2387400</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/hyundai/tucson/iv/n-line</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1425000</v>
+        <v>2435000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1425000</v>
+        <v>2435000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4809,30 +4801,38 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1559000</v>
+        <v>1260000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>https://autodealer-saratov.ru/auto/jac/j7/i/liftback</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1559000</v>
+        <v>1365000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/jac/j7/i/liftback</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4842,30 +4842,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1067400</v>
+        <v>1137000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jac/s7/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>1067400</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/jac/s7/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1137000</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4875,30 +4875,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1614000</v>
+        <v>1425000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1614000</v>
+        <v>1425000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4908,30 +4908,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1722000</v>
+        <v>1559000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1722000</v>
+        <v>1559000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4941,211 +4941,203 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1884000</v>
+        <v>1067400</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>1884000</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>https://autodealer-saratov.ru/auto/jac/s7/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1067400</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/jac/s7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1733940</v>
+        <v>1614000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jaecoo/j7/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2047000</v>
+        <v>1614000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>1733940</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/jaecoo/j7/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2859000</v>
+        <v>1722000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2859000</v>
+        <v>1722000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1493940</v>
+        <v>1884000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetour/dashing/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1618000</v>
+        <v>1884000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>1493940</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/jetour/dashing/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2443000</v>
+        <v>1775940</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>https://autodealer-saratov.ru/auto/jaecoo/j7/i/suv-5d</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2443000</v>
+        <v>2047000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>1775940</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/jaecoo/j7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1669000</v>
+        <v>2859000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1669000</v>
+        <v>2859000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5155,38 +5147,38 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1799940</v>
+        <v>1493940</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetour/x70-plus/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetour/dashing/i/suv-5d</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1944000</v>
+        <v>1618000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1799940</v>
+        <v>1493940</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetour/x70-plus/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetour/dashing/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5196,153 +5188,145 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2039940</v>
+        <v>2443000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetour/x90-plus/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2210000</v>
+        <v>2443000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>2039940</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/jetour/x90-plus/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1014000</v>
+        <v>1669000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetta/va3/i/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1253000</v>
+        <v>1669000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>1014000</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/jetta/va3/i/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1194000</v>
+        <v>1799940</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetta/vs5/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetour/x70-plus/i/suv-5d</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1919000</v>
+        <v>1944000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1194000</v>
+        <v>1799940</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetta/vs5/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetour/x70-plus/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>VS5 New</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1943000</v>
+        <v>2087940</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>https://autodealer-saratov.ru/auto/jetour/x90-plus/i/suv-5d</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1943000</v>
+        <v>2210000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>2087940</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/jetour/x90-plus/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5352,38 +5336,38 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1289400</v>
+        <v>1014000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetta/vs7/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetta/va3/i/sedan</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2091000</v>
+        <v>1253000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1289400</v>
+        <v>1014000</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/jetta/vs7/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetta/va3/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5393,153 +5377,145 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>VS7 New</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2112000</v>
+        <v>1194000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>https://autodealer-saratov.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2112000</v>
+        <v>1919000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1194000</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1169000</v>
+        <v>1943000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/e5/i/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1169000</v>
+        <v>1943000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>1169000</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/e5/i/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1342800</v>
+        <v>1289400</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/x3/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetta/vs7/i/suv-5d</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1455000</v>
+        <v>2091000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1342800</v>
+        <v>1289400</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/x3/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/jetta/vs7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1508940</v>
+        <v>2112000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1635000</v>
+        <v>2112000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>1508940</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5549,30 +5525,38 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1949000</v>
+        <v>1169000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/e5/i/sedan</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1949000</v>
+        <v>1169000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1169000</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/e5/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5582,153 +5566,145 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1798740</v>
+        <v>1342800</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/x3/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1455000</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1798740</v>
+        <v>1342800</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/x3/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2486940</v>
+        <v>1508940</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/carnival/iv/minivan</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3819000</v>
+        <v>1635000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2486940</v>
+        <v>1508940</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/carnival/iv/minivan</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1346940</v>
+        <v>1949000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1589000</v>
+        <v>1949000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>1346940</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1388940</v>
+        <v>1798740</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/sw</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>1635000</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1388940</v>
+        <v>1798740</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/sw</t>
+          <t>https://autodealer-saratov.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5738,38 +5714,38 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1295940</v>
+        <v>2486940</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/cerato/iv-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/carnival/iv/minivan</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1609000</v>
+        <v>3819000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1295940</v>
+        <v>2486940</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/cerato/iv-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/carnival/iv/minivan</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5779,38 +5755,38 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1640940</v>
+        <v>1346940</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/k5/iii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2077000</v>
+        <v>1589000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1640940</v>
+        <v>1346940</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/k5/iii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5820,30 +5796,38 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>K5 New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2138000</v>
+        <v>1388940</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/sw</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2138000</v>
+        <v>1635000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1388940</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/kia/seed/iii-restyling/sw</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5853,30 +5837,38 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>K9</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4424940</v>
+        <v>1295940</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/k9/ii-rj-rest/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/cerato/iv-restyling/sedan</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1609000</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>4424940</v>
+        <v>1295940</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/k9/ii-rj-rest/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/cerato/iv-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5886,38 +5878,38 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3497940</v>
+        <v>1640940</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/mohave/i-rest-2/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/k5/iii/sedan</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4277000</v>
+        <v>2077000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>3497940</v>
+        <v>1640940</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/mohave/i-rest-2/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/k5/iii/sedan</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5927,30 +5919,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1157000</v>
+        <v>2138000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1157000</v>
+        <v>2138000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5960,38 +5952,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K9</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>800940</v>
+        <v>4424940</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/picanto/iii-restyling/hatchback-5d</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>1189000</v>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/kia/k9/ii-rj-rest/sedan</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>800940</v>
+        <v>4424940</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/picanto/iii-restyling/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/k9/ii-rj-rest/sedan</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6001,38 +5985,38 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>860940</v>
+        <v>3497940</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/mohave/i-rest-2/suv-5d</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1324000</v>
+        <v>4277000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>860940</v>
+        <v>3497940</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/kia/mohave/i-rest-2/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6042,38 +6026,30 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>944940</v>
+        <v>1157000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/x</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1416000</v>
+        <v>1157000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
-        </is>
-      </c>
-      <c r="J153" t="n">
-        <v>944940</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/x</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6083,38 +6059,38 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1238940</v>
+        <v>800940</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/seltos/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/picanto/iii-restyling/hatchback-5d</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1737000</v>
+        <v>1189000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1238940</v>
+        <v>800940</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/seltos/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/picanto/iii-restyling/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6124,38 +6100,38 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2273940</v>
+        <v>860940</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/sorento/iv/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/sedan</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2971000</v>
+        <v>1324000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>2273940</v>
+        <v>860940</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/sorento/iv/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6165,30 +6141,38 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3162000</v>
+        <v>944940</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/x</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3162000</v>
+        <v>1416000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>944940</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/kia/rio/iv-restyling/x</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6198,38 +6182,38 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1160940</v>
+        <v>1238940</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/soul/iii/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/seltos/i/suv-5d</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1663000</v>
+        <v>1737000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1160940</v>
+        <v>1238940</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/soul/iii/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/seltos/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6239,186 +6223,186 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1709940</v>
+        <v>2273940</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/sportage/v/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/sorento/iv/suv-5d</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2227000</v>
+        <v>2971000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1709940</v>
+        <v>2273940</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/kia/sportage/v/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/sorento/iv/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2583000</v>
+        <v>3162000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2583000</v>
+        <v>3162000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>684000</v>
+        <v>1160940</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/cross</t>
+          <t>https://autodealer-saratov.ru/auto/kia/soul/iii/hatchback-5d</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>812000</v>
+        <v>1663000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>684000</v>
+        <v>1160940</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/cross</t>
+          <t>https://autodealer-saratov.ru/auto/kia/soul/iii/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>467100</v>
+        <v>1709940</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/sportage/v/suv-5d</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>2227000</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>467100</v>
+        <v>1709940</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/kia/sportage/v/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>625200</v>
+        <v>2583000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>734000</v>
+        <v>2583000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
-        </is>
-      </c>
-      <c r="J162" t="n">
-        <v>625200</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6428,38 +6412,38 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>419940</v>
+        <v>684000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/cross</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>645000</v>
+        <v>812000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>419940</v>
+        <v>684000</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/cross</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6469,30 +6453,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>570540</v>
+        <v>467100</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/drive-active</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>570540</v>
+        <v>467100</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/drive-active</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6502,30 +6486,38 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>892800</v>
+        <v>625200</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-liftback</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/liftback</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>734000</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>892800</v>
+        <v>625200</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-liftback</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/liftback</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6535,30 +6527,38 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>868800</v>
+        <v>419940</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sedan</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>645000</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>868800</v>
+        <v>419940</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6568,30 +6568,30 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>780600</v>
+        <v>570540</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/drive-active</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>780600</v>
+        <v>570540</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/drive-active</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6601,30 +6601,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>804600</v>
+        <v>892800</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-liftback</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>804600</v>
+        <v>892800</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-liftback</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6634,30 +6634,30 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>431580</v>
+        <v>868800</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/wagon-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-sedan</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>431580</v>
+        <v>868800</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/wagon-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sport-sedan</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6667,38 +6667,30 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>996000</v>
+        <v>780600</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/wagon-5d</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>1228000</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>996000</v>
+        <v>780600</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/wagon-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6708,30 +6700,30 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>866340</v>
+        <v>804600</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>866340</v>
+        <v>804600</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6741,38 +6733,30 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1002000</v>
+        <v>431580</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/van</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>1236000</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/wagon-5d</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1002000</v>
+        <v>431580</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/van</t>
+          <t>https://autodealer-saratov.ru/auto/lada/granta/i-restyling/wagon-5d</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6782,38 +6766,38 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>588600</v>
+        <v>996000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-3d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/wagon-5d</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>685000</v>
+        <v>1228000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>588600</v>
+        <v>996000</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-3d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/wagon-5d</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6823,30 +6807,30 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>551340</v>
+        <v>866340</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/cross</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>551340</v>
+        <v>866340</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/cross</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6856,38 +6840,38 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>861000</v>
+        <v>1002000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/bronto</t>
+          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/van</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1048000</v>
+        <v>1236000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>861000</v>
+        <v>1002000</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/bronto</t>
+          <t>https://autodealer-saratov.ru/auto/lada/largus/i-restyling/van</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6897,38 +6881,38 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>788400</v>
+        <v>588600</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-travel/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-3d</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>951000</v>
+        <v>685000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>788400</v>
+        <v>588600</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/niva-travel/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6938,38 +6922,30 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1055400</v>
+        <v>551340</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cross</t>
-        </is>
-      </c>
-      <c r="F177" t="n">
-        <v>1297000</v>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-5d</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1055400</v>
+        <v>551340</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6979,38 +6955,38 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>993000</v>
+        <v>861000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/bronto</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1215000</v>
+        <v>1048000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>993000</v>
+        <v>861000</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-legend/i/bronto</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7020,38 +6996,38 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1127400</v>
+        <v>788400</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-travel/i/suv-5d</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1393000</v>
+        <v>951000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1127400</v>
+        <v>788400</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/niva-travel/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7061,30 +7037,38 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1465800</v>
+        <v>1055400</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cross</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1297000</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>1465800</v>
+        <v>1055400</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cross</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7094,38 +7078,38 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>743940</v>
+        <v>993000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1108000</v>
+        <v>1215000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>743940</v>
+        <v>993000</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7135,30 +7119,38 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>790140</v>
+        <v>1127400</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cng</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-cross</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1393000</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>790140</v>
+        <v>1127400</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cng</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7168,30 +7160,30 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta SW Sportline New</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1363800</v>
+        <v>1465800</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sportline</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1363800</v>
+        <v>1465800</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sportline</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7201,30 +7193,38 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>664140</v>
+        <v>743940</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/xray/i/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sedan</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1108000</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>664140</v>
+        <v>743940</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/xray/i/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7234,236 +7234,236 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>749940</v>
+        <v>790140</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/xray/i/cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cng</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>749940</v>
+        <v>790140</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/lada/xray/i/cross</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/cng</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1529940</v>
+        <v>1363800</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/livan/s6pro/i/sedan</t>
-        </is>
-      </c>
-      <c r="F186" t="n">
-        <v>1657000</v>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sportline</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1529940</v>
+        <v>1363800</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/livan/s6pro/i/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/lada/vesta/i-restyling/sportline</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1087000</v>
+        <v>664140</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>1087000</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://autodealer-saratov.ru/auto/lada/xray/i/hatchback-5d</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>664140</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/lada/xray/i/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1577940</v>
+        <v>749940</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/livan/x6pro/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/xray/i/cross</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1577940</v>
+        <v>749940</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/livan/x6pro/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/lada/xray/i/cross</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>4949000</v>
+        <v>1529940</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>https://autodealer-saratov.ru/auto/livan/s6pro/i/sedan</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4949000</v>
+        <v>1657000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>1529940</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/livan/s6pro/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>4949000</v>
+        <v>1087000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4949000</v>
+        <v>1087000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5229000</v>
+        <v>1577940</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
-        </is>
-      </c>
-      <c r="F191" t="n">
-        <v>5229000</v>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>https://autodealer-saratov.ru/auto/livan/x6pro/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>1577940</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/livan/x6pro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -7473,30 +7473,30 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4961000</v>
+        <v>4949000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4961000</v>
+        <v>4949000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -7506,30 +7506,30 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>6430000</v>
+        <v>4949000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>6430000</v>
+        <v>4949000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -7539,129 +7539,129 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>L7 Restyling</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>6749000</v>
+        <v>5229000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>6749000</v>
+        <v>5229000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1481000</v>
+        <v>4961000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1481000</v>
+        <v>4961000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1884000</v>
+        <v>6430000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1884000</v>
+        <v>6430000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>L9 Restyling</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3984000</v>
+        <v>6749000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3984000</v>
+        <v>6749000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -7671,35 +7671,35 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1754000</v>
+        <v>1481000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1754000</v>
+        <v>1481000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7708,191 +7708,191 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2088000</v>
+        <v>1884000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2088000</v>
+        <v>1884000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2333000</v>
+        <v>3984000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2333000</v>
+        <v>3984000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2183000</v>
+        <v>1754000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2183000</v>
+        <v>1754000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2274000</v>
+        <v>2088000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2274000</v>
+        <v>2088000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2489000</v>
+        <v>2333000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2489000</v>
+        <v>2333000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2593000</v>
+        <v>2183000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2593000</v>
+        <v>2183000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7902,236 +7902,236 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2723000</v>
+        <v>2274000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2723000</v>
+        <v>2274000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1014000</v>
+        <v>2489000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/moskvich/3/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1099000</v>
+        <v>2489000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
-        </is>
-      </c>
-      <c r="J206" t="n">
-        <v>1014000</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/moskvich/3/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2460000</v>
+        <v>2593000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/moskvich/3e/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J207" t="n">
-        <v>2460000</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/moskvich/3e/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>2593000</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1430000</v>
+        <v>2723000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1430000</v>
+        <v>2723000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2645400</v>
+        <v>1014000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/murano/iii/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/moskvich/3/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>2645400</v>
+        <v>1014000</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/murano/iii/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/moskvich/3/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1402200</v>
+        <v>2460000</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/moskvich/3e/i/suv-5d</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1402200</v>
+        <v>2460000</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/moskvich/3e/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1014000</v>
+        <v>1430000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/terrano/iii/suv-5d</t>
-        </is>
-      </c>
-      <c r="J211" t="n">
-        <v>1014000</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/terrano/iii/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -8141,277 +8141,277 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1657200</v>
+        <v>2645400</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/murano/iii/suv-5d</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1657200</v>
+        <v>2645400</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/murano/iii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1391940</v>
+        <v>1402200</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/omoda/c5/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1391940</v>
+        <v>1402200</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/omoda/c5/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1247400</v>
+        <v>1014000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/omoda/s5/i/sedan</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v>1299000</v>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/terrano/iii/suv-5d</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1247400</v>
+        <v>1014000</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/omoda/s5/i/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/terrano/iii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1579000</v>
+        <v>1657200</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
-        </is>
-      </c>
-      <c r="F215" t="n">
-        <v>1579000</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>1657200</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2469000</v>
+        <v>1391940</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://autodealer-saratov.ru/auto/omoda/c5/i/suv-5d</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2469000</v>
+        <v>1449000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>1391940</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/omoda/c5/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1124400</v>
+        <v>1247400</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/arkana/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/omoda/s5/i/sedan</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>1124400</v>
+        <v>1247400</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/arkana/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/omoda/s5/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>970800</v>
+        <v>1579000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/duster/ii/suv-5d</t>
-        </is>
-      </c>
-      <c r="J218" t="n">
-        <v>970800</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/renault/duster/ii/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>1579000</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1034400</v>
+        <v>2469000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/kaptur/i-rest/suv-5d</t>
-        </is>
-      </c>
-      <c r="J219" t="n">
-        <v>1034400</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/renault/kaptur/i-rest/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>2469000</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -8421,30 +8421,30 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>674400</v>
+        <v>1124400</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/renault/arkana/i/suv-5d</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>674400</v>
+        <v>1124400</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/renault/arkana/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -8454,30 +8454,30 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>780600</v>
+        <v>970800</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/stepway</t>
+          <t>https://autodealer-saratov.ru/auto/renault/duster/ii/suv-5d</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>780600</v>
+        <v>970800</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/stepway</t>
+          <t>https://autodealer-saratov.ru/auto/renault/duster/ii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -8487,30 +8487,30 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>754800</v>
+        <v>1034400</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/renault/kaptur/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>754800</v>
+        <v>1034400</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/hatchback-5d</t>
+          <t>https://autodealer-saratov.ru/auto/renault/kaptur/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -8520,236 +8520,228 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>823800</v>
+        <v>674400</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/stepway</t>
+          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/sedan</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>823800</v>
+        <v>674400</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/stepway</t>
+          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1416000</v>
+        <v>780600</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
-        </is>
-      </c>
-      <c r="F224" t="n">
-        <v>1416000</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/stepway</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>780600</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/renault/logan/ii-restyling/stepway</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1559000</v>
+        <v>754800</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
-        </is>
-      </c>
-      <c r="F225" t="n">
-        <v>1559000</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/hatchback-5d</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>754800</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1559000</v>
+        <v>823800</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
-        </is>
-      </c>
-      <c r="F226" t="n">
-        <v>1559000</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/stepway</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>823800</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/renault/sandero/ii/stepway</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1023000</v>
+        <v>1416000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2529000</v>
+        <v>1416000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
-        </is>
-      </c>
-      <c r="J227" t="n">
-        <v>1023000</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1234200</v>
+        <v>1559000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
-        </is>
-      </c>
-      <c r="J228" t="n">
-        <v>1234200</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>1559000</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1271340</v>
+        <v>1559000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/hockey-edition</t>
-        </is>
-      </c>
-      <c r="J229" t="n">
-        <v>1271340</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/hockey-edition</t>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>1559000</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -8759,30 +8751,38 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3483600</v>
+        <v>1023000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/laurin</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>2529000</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>3483600</v>
+        <v>1023000</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/laurin</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -8792,15 +8792,15 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2853000</v>
+        <v>1234200</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -8811,11 +8811,19 @@
           <t>http://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
+      <c r="J231" t="n">
+        <v>1234200</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -8825,30 +8833,30 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1948800</v>
+        <v>1271340</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/scout</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/hockey-edition</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1948800</v>
+        <v>1271340</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/scout</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/hockey-edition</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -8858,30 +8866,30 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3226800</v>
+        <v>3483600</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/sportline</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/laurin</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>3226800</v>
+        <v>3483600</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/sportline</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/laurin</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -8891,38 +8899,30 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>994200</v>
+        <v>1948800</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/octavia/iv/liftback</t>
-        </is>
-      </c>
-      <c r="F234" t="n">
-        <v>2372000</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/scout</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>994200</v>
+        <v>1948800</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/octavia/iv/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/scout</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -8932,30 +8932,30 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>630600</v>
+        <v>3226800</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/rapid/ii/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/sportline</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>630600</v>
+        <v>3226800</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/rapid/ii/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/kodiaq/i-rest/sportline</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -8965,30 +8965,38 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1432800</v>
+        <v>994200</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/octavia/iv/liftback</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>2372000</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1432800</v>
+        <v>994200</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/octavia/iv/liftback</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8998,211 +9006,211 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1608600</v>
+        <v>630600</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/combi</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/rapid/ii/liftback</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1608600</v>
+        <v>630600</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/combi</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/rapid/ii/liftback</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2977000</v>
+        <v>1432800</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
-        </is>
-      </c>
-      <c r="F238" t="n">
-        <v>2977000</v>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/liftback</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>1432800</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/liftback</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2579400</v>
+        <v>1608600</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/tank/300/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F239" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/combi</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2579400</v>
+        <v>1608600</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/tank/300/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/skoda/superb/3-rest/combi</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>3959400</v>
+        <v>2977000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/tank/500/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4094000</v>
+        <v>2977000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
-        </is>
-      </c>
-      <c r="J240" t="n">
-        <v>3959400</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/tank/500/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2854000</v>
+        <v>2579400</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://autodealer-saratov.ru/auto/tank/300/i/suv-5d</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>2854000</v>
+        <v>2729000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>2579400</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/tank/300/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2274000</v>
+        <v>3959400</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://autodealer-saratov.ru/auto/tank/500/i/suv-5d</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>2274000</v>
+        <v>4192000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>3959400</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/tank/500/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -9212,30 +9220,30 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2919000</v>
+        <v>2854000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>2919000</v>
+        <v>2854000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -9245,30 +9253,30 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>3054000</v>
+        <v>2274000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>3054000</v>
+        <v>2274000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -9278,30 +9286,30 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1806000</v>
+        <v>2919000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1806000</v>
+        <v>2919000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -9311,30 +9319,30 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3623000</v>
+        <v>3054000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>3623000</v>
+        <v>3054000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -9344,30 +9352,30 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>4786000</v>
+        <v>1806000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4786000</v>
+        <v>1806000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -9377,30 +9385,30 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3394000</v>
+        <v>3623000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>3394000</v>
+        <v>3623000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -9410,30 +9418,30 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>6942000</v>
+        <v>4786000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>6942000</v>
+        <v>4786000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -9443,30 +9451,30 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4204000</v>
+        <v>3394000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4204000</v>
+        <v>3394000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -9476,96 +9484,96 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>3184000</v>
+        <v>6942000</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>3184000</v>
+        <v>6942000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>906000</v>
+        <v>4204000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/uaz/hunter/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J252" t="n">
-        <v>906000</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/uaz/hunter/i/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1008000</v>
+        <v>3184000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
-        </is>
-      </c>
-      <c r="J253" t="n">
-        <v>1008000</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
+          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>3184000</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -9575,96 +9583,96 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1023000</v>
+        <v>906000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/pickup</t>
+          <t>https://autodealer-saratov.ru/auto/uaz/hunter/i/suv-5d</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1023000</v>
+        <v>906000</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/pickup</t>
+          <t>https://autodealer-saratov.ru/auto/uaz/hunter/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>910800</v>
+        <v>1008000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/volkswagen/jetta/vii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>910800</v>
+        <v>1008000</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/volkswagen/jetta/vii/sedan</t>
+          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>831540</v>
+        <v>1023000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/volkswagen/polo/vi/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/pickup</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>831540</v>
+        <v>1023000</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/volkswagen/polo/vi/liftback</t>
+          <t>https://autodealer-saratov.ru/auto/uaz/patriot/1rest-3/pickup</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -9674,54 +9682,120 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1697340</v>
+        <v>910800</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/volkswagen/taos/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/volkswagen/jetta/vii/sedan</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1697340</v>
+        <v>910800</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>https://autodealer-saratov.ru/auto/volkswagen/taos/i/suv-5d</t>
+          <t>https://autodealer-saratov.ru/auto/volkswagen/jetta/vii/sedan</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>831540</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/volkswagen/polo/vi/liftback</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>831540</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/volkswagen/polo/vi/liftback</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1697340</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/volkswagen/taos/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>1697340</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>https://autodealer-saratov.ru/auto/volkswagen/taos/i/suv-5d</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
           <t>657</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>Tiguan</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D260" t="n">
         <v>2025540</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>https://autodealer-saratov.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
         </is>
       </c>
-      <c r="J258" t="n">
+      <c r="J260" t="n">
         <v>2025540</v>
       </c>
-      <c r="K258" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>https://autodealer-saratov.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/bj40/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/bj40/1-restyling</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/bj40/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/bj40/1-restyling</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/u5_plus/1</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/u5_plus/1</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/u5_plus/1</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/u5_plus/1</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x35/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x35/suv</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x35/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x35/suv</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x55/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x55/suv</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x55/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x55/suv</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x7/suv</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x7/suv</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x75/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x75/suv</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/baic/x75/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/baic/x75/suv</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/byd/seagull/1</t>
+          <t>https://saratov-avtohous.ru/katalog/byd/seagull/1</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/byd/seagull/1</t>
+          <t>https://saratov-avtohous.ru/katalog/byd/seagull/1</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x50/1</t>
+          <t>https://saratov-avtohous.ru/katalog/belgee/x50/1</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x50/1</t>
+          <t>https://saratov-avtohous.ru/katalog/belgee/x50/1</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/belgee/x70/suv</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/belgee/x70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/belgee/x70/suv</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -837,7 +837,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs35-plus/2020</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs35-plus/suv</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs55/cuv</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -936,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs55_plus/suv</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs75-plus/suv</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs75fl/suv</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs85coupe/suv</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/cs95/suv</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/eado-plus/sedan</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/hunter-plus/1</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/lamore/1</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-k/1</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-t/1-restyling</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/uni-v/liftback</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/arrizo_8/suv</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-4/2-restyling</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-4pro/suv</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/suv</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/suv</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-8pro-max/1-restyling</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-9/1</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/580/580</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix5/suv</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/dongfeng/shine_max/suv</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/rx/1</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/rx/1</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/txl/1-restyling-2</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/vx/suv</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/vx/1-restyling</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>https://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>https://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t9/1</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jac/t9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t9/1</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x50/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x50/1</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x50/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x50/1</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
         </is>
       </c>
     </row>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
     </row>
@@ -7491,19 +7491,19 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>3184000</v>
+        <v>4184000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3184000</v>
+        <v>4184000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>http://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
     </row>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,337 +1900,337 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i-JET</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4173000</v>
+        <v>1593000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4173000</v>
+        <v>1593000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i-jet/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i-JOY</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2597000</v>
+        <v>1567000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2597000</v>
+        <v>1567000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i-joy/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1944000</v>
+        <v>1862000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1944000</v>
+        <v>1862000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i-pro/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>i-SKY</t>
+          <t>Bestune T90</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3198000</v>
+        <v>1807000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3198000</v>
+        <v>1807000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i_sky/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>i-SPACE</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1999000</v>
+        <v>1997000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1999000</v>
+        <v>1997000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/evolute/i_space/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>GA6</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1593000</v>
+        <v>1559000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1593000</v>
+        <v>1559000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-b70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/ga6/2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1567000</v>
+        <v>2209000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1567000</v>
+        <v>2209000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t55/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gn8/van</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1862000</v>
+        <v>1494000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1862000</v>
+        <v>1494000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t77/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bestune T90</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1807000</v>
+        <v>1462000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1807000</v>
+        <v>1462000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t90/1</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1997000</v>
+        <v>1884000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1997000</v>
+        <v>1884000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/faw/bestune-t99/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2240,30 +2240,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GA6</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1559000</v>
+        <v>2534000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1559000</v>
+        <v>2534000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/ga6/2</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2273,195 +2273,195 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2209000</v>
+        <v>3575000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2209000</v>
+        <v>3575000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gn8/van</t>
+          <t>https://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1494000</v>
+        <v>2080000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1494000</v>
+        <v>2080000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1462000</v>
+        <v>1797000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1462000</v>
+        <v>1797000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1884000</v>
+        <v>1755000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1884000</v>
+        <v>1755000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2534000</v>
+        <v>1479000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2534000</v>
+        <v>1479000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/gs8/2023</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>Coolray Restyling</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3575000</v>
+        <v>1566000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3575000</v>
+        <v>1566000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/gac/m8/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2471,30 +2471,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2080000</v>
+        <v>1345000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2080000</v>
+        <v>1345000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/Atlas/2</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2504,30 +2504,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1797000</v>
+        <v>2599000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1797000</v>
+        <v>2599000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/atlaspro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2537,30 +2537,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Monjaro Restyling</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1755000</v>
+        <v>3533000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1755000</v>
+        <v>3533000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/cityray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2570,30 +2570,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1479000</v>
+        <v>2177000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1479000</v>
+        <v>2177000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/coolray/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2603,30 +2603,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Coolray Restyling</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1566000</v>
+        <v>1888000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1566000</v>
+        <v>1888000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/coolray/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2636,30 +2636,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Preface New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1345000</v>
+        <v>1950000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1345000</v>
+        <v>1950000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/emgrand/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2669,228 +2669,228 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2599000</v>
+        <v>2574000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2599000</v>
+        <v>2574000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Monjaro Restyling</t>
+          <t>POER King Kong</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3533000</v>
+        <v>2079000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3533000</v>
+        <v>2079000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/monjaro/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2177000</v>
+        <v>1982000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2177000</v>
+        <v>1982000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/okavango/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1888000</v>
+        <v>2177000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1888000</v>
+        <v>2177000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/preface/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1950000</v>
+        <v>1592000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1950000</v>
+        <v>1592000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/preface/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2574000</v>
+        <v>1754000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2574000</v>
+        <v>1754000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/geely/tugella/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>POER King Kong</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2079000</v>
+        <v>1624000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2079000</v>
+        <v>1624000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/great-wall/poer-king-kong/1</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2900,30 +2900,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1982000</v>
+        <v>1689000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1982000</v>
+        <v>1689000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h3/1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2933,30 +2933,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2177000</v>
+        <v>2404000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2177000</v>
+        <v>2404000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h-5/2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2966,30 +2966,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1592000</v>
+        <v>2794000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1592000</v>
+        <v>2794000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/h9/2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2999,30 +2999,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1754000</v>
+        <v>1267000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1754000</v>
+        <v>1267000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/haval-f7/2</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3032,30 +3032,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>Jolion Restyling</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1624000</v>
+        <v>1299000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1624000</v>
+        <v>1299000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/f-7x/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3065,35 +3065,35 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1689000</v>
+        <v>1416000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1689000</v>
+        <v>1416000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/h3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3102,224 +3102,224 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2404000</v>
+        <v>3114000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2404000</v>
+        <v>3114000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/h-5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hongqi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>HS5</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2794000</v>
+        <v>3504000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2794000</v>
+        <v>3504000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/h9/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1267000</v>
+        <v>1618000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1267000</v>
+        <v>1618000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/jolion/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jolion Restyling</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1299000</v>
+        <v>2625000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1299000</v>
+        <v>2625000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/jolion/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1416000</v>
+        <v>1741000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1416000</v>
+        <v>1741000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3114000</v>
+        <v>1819000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3114000</v>
+        <v>1819000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hongqi/h5/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hongqi</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HS5</t>
+          <t>Mufasa</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3504000</v>
+        <v>2138000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3504000</v>
+        <v>2138000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hongqi/hs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3329,30 +3329,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1618000</v>
+        <v>4257000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1618000</v>
+        <v>4257000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/creta/2</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2625000</v>
+        <v>4453000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2625000</v>
+        <v>4453000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/custin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3395,30 +3395,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1741000</v>
+        <v>1268000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1741000</v>
+        <v>1268000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3428,30 +3428,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1819000</v>
+        <v>2135000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1819000</v>
+        <v>2135000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/elantra/7-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3461,30 +3461,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mufasa</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2138000</v>
+        <v>4590000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2138000</v>
+        <v>4590000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/mufasa/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3494,30 +3494,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4257000</v>
+        <v>2197000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4257000</v>
+        <v>2197000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/palisade/2022</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3527,195 +3527,195 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4453000</v>
+        <v>2435000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4453000</v>
+        <v>2435000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/santa-fe/5</t>
+          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1268000</v>
+        <v>1365000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1268000</v>
+        <v>1365000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/solaris/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2135000</v>
+        <v>1137000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2135000</v>
+        <v>1137000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/sonata/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js3/suv</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4590000</v>
+        <v>1425000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4590000</v>
+        <v>1425000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/staria/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js4/suv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2197000</v>
+        <v>1559000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2197000</v>
+        <v>1559000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/js6/suv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2435000</v>
+        <v>1614000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2435000</v>
+        <v>1614000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/hyundai/tucson/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t6/2019</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3725,30 +3725,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1365000</v>
+        <v>1722000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1365000</v>
+        <v>1722000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/j7/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3758,30 +3758,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1137000</v>
+        <v>1884000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1137000</v>
+        <v>1884000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/js3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3791,261 +3791,261 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1425000</v>
+        <v>2307000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t9/1</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1425000</v>
+        <v>2307000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/js4/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jac/t9/1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1559000</v>
+        <v>2047000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1559000</v>
+        <v>2047000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/js6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1614000</v>
+        <v>2859000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1614000</v>
+        <v>2859000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t6/2019</t>
+          <t>https://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1722000</v>
+        <v>1618000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1722000</v>
+        <v>1618000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t8/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1884000</v>
+        <v>2443000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1884000</v>
+        <v>2443000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t8_pro/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2307000</v>
+        <v>1294000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x50/1</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2307000</v>
+        <v>1294000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jac/t9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x50/1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2047000</v>
+        <v>1669000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2047000</v>
+        <v>1669000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jaecoo/j7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2859000</v>
+        <v>1944000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2859000</v>
+        <v>1944000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jaecoo/j8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4055,492 +4055,492 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1618000</v>
+        <v>2210000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1618000</v>
+        <v>2210000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/dashing/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2443000</v>
+        <v>1253000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2443000</v>
+        <v>1253000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/t2/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1294000</v>
+        <v>1919000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x50/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1294000</v>
+        <v>1919000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x50/1</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>VS5 New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1669000</v>
+        <v>1943000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1669000</v>
+        <v>1943000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x70/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1944000</v>
+        <v>2091000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1944000</v>
+        <v>2091000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VS7 New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2210000</v>
+        <v>2112000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2210000</v>
+        <v>2112000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetour/x90_plus/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1253000</v>
+        <v>1169000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1253000</v>
+        <v>1169000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/va3/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1919000</v>
+        <v>1455000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1919000</v>
+        <v>1455000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>VS5 New</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1943000</v>
+        <v>1635000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1943000</v>
+        <v>1635000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2091000</v>
+        <v>1949000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2091000</v>
+        <v>1949000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>VS7 New</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2112000</v>
+        <v>3819000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2112000</v>
+        <v>3819000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1169000</v>
+        <v>1589000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1169000</v>
+        <v>1589000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/e5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1455000</v>
+        <v>1635000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1455000</v>
+        <v>1635000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3/1</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1635000</v>
+        <v>1609000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1635000</v>
+        <v>1609000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/x3_pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1949000</v>
+        <v>2077000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1949000</v>
+        <v>2077000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kaiyi/x7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4550,30 +4550,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3819000</v>
+        <v>2138000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3819000</v>
+        <v>2138000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/carnival/minivan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4583,30 +4583,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1589000</v>
+        <v>4277000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1589000</v>
+        <v>4277000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/ceed/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4616,30 +4616,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Pegas</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1635000</v>
+        <v>1157000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1635000</v>
+        <v>1157000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/ceedsw/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4649,30 +4649,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1609000</v>
+        <v>1189000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1609000</v>
+        <v>1189000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/cerato/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4682,30 +4682,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2077000</v>
+        <v>1324000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2077000</v>
+        <v>1324000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/k5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio/fb</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4715,30 +4715,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>K5 New</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2138000</v>
+        <v>1416000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2138000</v>
+        <v>1416000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/k5/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4748,30 +4748,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4277000</v>
+        <v>1737000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4277000</v>
+        <v>1737000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/mohave/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4781,30 +4781,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pegas</t>
+          <t>Seltos New</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1157000</v>
+        <v>1936000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1157000</v>
+        <v>1936000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/pegas/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4814,30 +4814,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1189000</v>
+        <v>2971000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1189000</v>
+        <v>2971000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/picanto/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4847,30 +4847,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1324000</v>
+        <v>3162000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1324000</v>
+        <v>3162000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/rio/fb</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4880,30 +4880,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1416000</v>
+        <v>1663000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1416000</v>
+        <v>1663000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/rio-x/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4913,228 +4913,228 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1737000</v>
+        <v>2227000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1737000</v>
+        <v>2227000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/seltos/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Seltos New</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1936000</v>
+        <v>2583000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1936000</v>
+        <v>2583000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/seltos/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2971000</v>
+        <v>1929000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2971000</v>
+        <v>1929000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sorento/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3162000</v>
+        <v>812000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3162000</v>
+        <v>812000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sorento/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1663000</v>
+        <v>734000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1663000</v>
+        <v>734000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/soul/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2227000</v>
+        <v>645000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2227000</v>
+        <v>645000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2583000</v>
+        <v>1394000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2583000</v>
+        <v>1394000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5144,30 +5144,30 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1929000</v>
+        <v>1236000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1929000</v>
+        <v>1236000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5177,30 +5177,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>812000</v>
+        <v>685000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>812000</v>
+        <v>685000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5210,30 +5210,30 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>734000</v>
+        <v>1048000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>734000</v>
+        <v>1048000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5243,30 +5243,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>645000</v>
+        <v>951000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>645000</v>
+        <v>951000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5276,30 +5276,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1228000</v>
+        <v>1297000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1228000</v>
+        <v>1297000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5309,30 +5309,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1236000</v>
+        <v>1215000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1236000</v>
+        <v>1215000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5342,30 +5342,30 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>685000</v>
+        <v>1393000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>685000</v>
+        <v>1393000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5375,1162 +5375,1162 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1048000</v>
+        <v>1108000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1048000</v>
+        <v>1108000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>951000</v>
+        <v>1657000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>951000</v>
+        <v>1657000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1297000</v>
+        <v>1087000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1297000</v>
+        <v>1087000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>4 EV</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1215000</v>
+        <v>3445000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1215000</v>
+        <v>3445000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1393000</v>
+        <v>1481000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1393000</v>
+        <v>1481000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1108000</v>
+        <v>1884000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1108000</v>
+        <v>1884000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1657000</v>
+        <v>2405000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1657000</v>
+        <v>2405000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1087000</v>
+        <v>3984000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1087000</v>
+        <v>3984000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4789000</v>
+        <v>1949000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4789000</v>
+        <v>1949000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l6/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4949000</v>
+        <v>1820000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4949000</v>
+        <v>1820000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>L7 Restyling</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5229000</v>
+        <v>2724000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5229000</v>
+        <v>2724000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l7/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4961000</v>
+        <v>3185000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4961000</v>
+        <v>3185000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l8/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6430000</v>
+        <v>1754000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>6430000</v>
+        <v>1754000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>L9 Restyling</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6509000</v>
+        <v>2088000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>6509000</v>
+        <v>2088000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lixiang/l9/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4 EV</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3445000</v>
+        <v>2333000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3445000</v>
+        <v>2333000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1481000</v>
+        <v>2183000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1481000</v>
+        <v>2183000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1884000</v>
+        <v>2274000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1884000</v>
+        <v>2274000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2405000</v>
+        <v>2489000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2405000</v>
+        <v>2489000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3984000</v>
+        <v>2593000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3984000</v>
+        <v>2593000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1949000</v>
+        <v>2723000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1949000</v>
+        <v>2723000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RX 5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1820000</v>
+        <v>1099000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1820000</v>
+        <v>1099000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>RX 8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2724000</v>
+        <v>1430000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2724000</v>
+        <v>1430000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>RX 9</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3185000</v>
+        <v>1449000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3185000</v>
+        <v>1449000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1754000</v>
+        <v>1299000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1754000</v>
+        <v>1299000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2088000</v>
+        <v>1579000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2088000</v>
+        <v>1579000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2333000</v>
+        <v>2469000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2333000</v>
+        <v>2469000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2183000</v>
+        <v>1412000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2183000</v>
+        <v>1412000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2274000</v>
+        <v>1265000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2274000</v>
+        <v>1265000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2489000</v>
+        <v>1327000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2489000</v>
+        <v>1327000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2593000</v>
+        <v>1030000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2593000</v>
+        <v>1030000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2723000</v>
+        <v>1079000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2723000</v>
+        <v>1079000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1099000</v>
+        <v>1049000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1099000</v>
+        <v>1049000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1430000</v>
+        <v>1118000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1430000</v>
+        <v>1118000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1449000</v>
+        <v>1548000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1449000</v>
+        <v>1548000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1299000</v>
+        <v>1480000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1299000</v>
+        <v>1480000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -6546,962 +6546,566 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2469000</v>
+        <v>2529000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2469000</v>
+        <v>2529000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1412000</v>
+        <v>2853000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1412000</v>
+        <v>2853000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1265000</v>
+        <v>2372000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1265000</v>
+        <v>2372000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1327000</v>
+        <v>2729000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1327000</v>
+        <v>2729000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1030000</v>
+        <v>4192000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1030000</v>
+        <v>4192000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1079000</v>
+        <v>6174000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1079000</v>
+        <v>6174000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1049000</v>
+        <v>2854000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1049000</v>
+        <v>2854000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1118000</v>
+        <v>2274000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1118000</v>
+        <v>2274000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1416000</v>
+        <v>2919000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1416000</v>
+        <v>2919000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1559000</v>
+        <v>3054000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1559000</v>
+        <v>3054000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1559000</v>
+        <v>1806000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1559000</v>
+        <v>1806000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2529000</v>
+        <v>3623000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2529000</v>
+        <v>3623000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2853000</v>
+        <v>4786000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2853000</v>
+        <v>4786000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2372000</v>
+        <v>3394000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2372000</v>
+        <v>3394000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2977000</v>
+        <v>6942000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2977000</v>
+        <v>6942000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skywell/et5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2729000</v>
+        <v>4204000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2729000</v>
+        <v>4204000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4192000</v>
+        <v>4184000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4192000</v>
+        <v>4184000</v>
       </c>
       <c r="G202" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>TANK</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>6174000</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
-        </is>
-      </c>
-      <c r="F203" t="n">
-        <v>6174000</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>BZ4X</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>2854000</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>2854000</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>623</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>CH-R</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>2274000</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
-        </is>
-      </c>
-      <c r="F205" t="n">
-        <v>2274000</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>621</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Camry</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>2919000</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
-        </is>
-      </c>
-      <c r="F206" t="n">
-        <v>2919000</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>622</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Camry New</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>3054000</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
-        </is>
-      </c>
-      <c r="F207" t="n">
-        <v>3054000</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Corolla</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>1806000</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
-        </is>
-      </c>
-      <c r="F208" t="n">
-        <v>1806000</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>618</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Fortuner</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>3623000</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
-        </is>
-      </c>
-      <c r="F209" t="n">
-        <v>3623000</v>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Highlander</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>4786000</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v>4786000</v>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>627</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Hilux</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>3394000</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v>3394000</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>629</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Land Cruiser 300</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>6942000</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
-        </is>
-      </c>
-      <c r="F212" t="n">
-        <v>6942000</v>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Land Cruiser Prado</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>4204000</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
-        <v>4204000</v>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>RAV4</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4184000</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v>4184000</v>
-      </c>
-      <c r="G214" t="inlineStr">
         <is>
           <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4903,7 +4903,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4913,96 +4913,96 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Soul New</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2227000</v>
+        <v>1887000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/soul/3-restyling</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2227000</v>
+        <v>1887000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/soul/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2583000</v>
+        <v>2227000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2583000</v>
+        <v>2227000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1929000</v>
+        <v>2583000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1929000</v>
+        <v>2583000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5012,30 +5012,30 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>812000</v>
+        <v>1929000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>812000</v>
+        <v>1929000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5045,30 +5045,30 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>734000</v>
+        <v>812000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>734000</v>
+        <v>812000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5078,30 +5078,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>645000</v>
+        <v>734000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>645000</v>
+        <v>734000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5111,30 +5111,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1394000</v>
+        <v>645000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1394000</v>
+        <v>645000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5144,30 +5144,30 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1236000</v>
+        <v>1394000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1236000</v>
+        <v>1394000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5177,30 +5177,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>685000</v>
+        <v>1236000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>685000</v>
+        <v>1236000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5210,30 +5210,30 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1048000</v>
+        <v>685000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1048000</v>
+        <v>685000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5243,30 +5243,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>951000</v>
+        <v>1048000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>951000</v>
+        <v>1048000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5276,30 +5276,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1297000</v>
+        <v>951000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1297000</v>
+        <v>951000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5309,30 +5309,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1215000</v>
+        <v>1297000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1215000</v>
+        <v>1297000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5342,30 +5342,30 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1393000</v>
+        <v>1215000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1393000</v>
+        <v>1215000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5375,63 +5375,63 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1108000</v>
+        <v>1393000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1108000</v>
+        <v>1393000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1657000</v>
+        <v>1108000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1657000</v>
+        <v>1108000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5441,63 +5441,63 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1087000</v>
+        <v>1657000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1087000</v>
+        <v>1657000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/s6-pro/1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4 EV</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3445000</v>
+        <v>1087000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3445000</v>
+        <v>1087000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5507,30 +5507,30 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4 EV</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1481000</v>
+        <v>3445000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1481000</v>
+        <v>3445000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5540,30 +5540,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1884000</v>
+        <v>1481000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1884000</v>
+        <v>1481000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5573,30 +5573,30 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2405000</v>
+        <v>1884000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2405000</v>
+        <v>1884000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5606,30 +5606,30 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3984000</v>
+        <v>2405000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>3984000</v>
+        <v>2405000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5639,30 +5639,30 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1949000</v>
+        <v>3984000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1949000</v>
+        <v>3984000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5672,30 +5672,30 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>RX 5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1820000</v>
+        <v>1949000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1820000</v>
+        <v>1949000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5705,30 +5705,30 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RX 8</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2724000</v>
+        <v>1820000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2724000</v>
+        <v>1820000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5738,30 +5738,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RX 9</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3185000</v>
+        <v>2724000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3185000</v>
+        <v>2724000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5771,63 +5771,63 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1754000</v>
+        <v>3185000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1754000</v>
+        <v>3185000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2088000</v>
+        <v>1754000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2088000</v>
+        <v>1754000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5837,30 +5837,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2333000</v>
+        <v>2088000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2333000</v>
+        <v>2088000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5870,63 +5870,63 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2183000</v>
+        <v>2333000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2183000</v>
+        <v>2333000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2274000</v>
+        <v>2183000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2274000</v>
+        <v>2183000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5936,30 +5936,30 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2489000</v>
+        <v>2274000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2489000</v>
+        <v>2274000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5969,30 +5969,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2593000</v>
+        <v>2489000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2593000</v>
+        <v>2489000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6002,63 +6002,63 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2723000</v>
+        <v>2593000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2723000</v>
+        <v>2593000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1099000</v>
+        <v>2723000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1099000</v>
+        <v>2723000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6068,63 +6068,63 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1430000</v>
+        <v>1099000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1430000</v>
+        <v>1099000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1449000</v>
+        <v>1430000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1449000</v>
+        <v>1430000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6134,30 +6134,30 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1299000</v>
+        <v>1449000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1299000</v>
+        <v>1449000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6167,96 +6167,96 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1579000</v>
+        <v>1299000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1579000</v>
+        <v>1299000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2469000</v>
+        <v>1579000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2469000</v>
+        <v>1579000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1412000</v>
+        <v>2469000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1412000</v>
+        <v>2469000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6266,30 +6266,30 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1265000</v>
+        <v>1412000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1265000</v>
+        <v>1412000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6299,30 +6299,30 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1327000</v>
+        <v>1265000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1327000</v>
+        <v>1265000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6332,30 +6332,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1030000</v>
+        <v>1327000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1030000</v>
+        <v>1327000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6365,30 +6365,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1079000</v>
+        <v>1030000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1079000</v>
+        <v>1030000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6398,30 +6398,30 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1049000</v>
+        <v>1079000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1049000</v>
+        <v>1079000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6431,63 +6431,63 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1118000</v>
+        <v>1049000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1118000</v>
+        <v>1049000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1548000</v>
+        <v>1118000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1548000</v>
+        <v>1118000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6497,30 +6497,30 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1480000</v>
+        <v>1548000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1480000</v>
+        <v>1548000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6530,63 +6530,63 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1579000</v>
+        <v>1480000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1579000</v>
+        <v>1480000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2529000</v>
+        <v>1579000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2529000</v>
+        <v>1579000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6596,30 +6596,30 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2853000</v>
+        <v>2529000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2853000</v>
+        <v>2529000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6629,63 +6629,63 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2372000</v>
+        <v>2853000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2372000</v>
+        <v>2853000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2729000</v>
+        <v>2372000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2729000</v>
+        <v>2372000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6695,30 +6695,30 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>4192000</v>
+        <v>2729000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4192000</v>
+        <v>2729000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6728,63 +6728,63 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>6174000</v>
+        <v>4192000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>6174000</v>
+        <v>4192000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2854000</v>
+        <v>6174000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2854000</v>
+        <v>6174000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6794,30 +6794,30 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2274000</v>
+        <v>2854000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2274000</v>
+        <v>2854000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6827,30 +6827,30 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2919000</v>
+        <v>2274000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2919000</v>
+        <v>2274000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6860,30 +6860,30 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3054000</v>
+        <v>2919000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3054000</v>
+        <v>2919000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6893,30 +6893,30 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1806000</v>
+        <v>3054000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1806000</v>
+        <v>3054000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6926,30 +6926,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3623000</v>
+        <v>1806000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3623000</v>
+        <v>1806000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6959,30 +6959,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>4786000</v>
+        <v>3623000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4786000</v>
+        <v>3623000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6992,30 +6992,30 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>3394000</v>
+        <v>4786000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3394000</v>
+        <v>4786000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7025,30 +7025,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>6942000</v>
+        <v>3394000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>6942000</v>
+        <v>3394000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7058,54 +7058,87 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4204000</v>
+        <v>6942000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4204000</v>
+        <v>6942000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>4204000</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D203" t="n">
         <v>4184000</v>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F202" t="n">
+      <c r="F203" t="n">
         <v>4184000</v>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,26 +457,6 @@
           <t>saratov-avtohous.ru</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cartrade-saratov.ru_price</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>cartrade-saratov.ru</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>autodealer-saratov.ru_price</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>autodealer-saratov.ru</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2828000</v>
+        <v>3448000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2828000</v>
+        <v>3448000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1352000</v>
+        <v>1518000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1352000</v>
+        <v>1518000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1446000</v>
+        <v>1530000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1446000</v>
+        <v>1530000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1931000</v>
+        <v>2126000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1931000</v>
+        <v>2126000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2015000</v>
+        <v>2230000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2015000</v>
+        <v>2230000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1944000</v>
+        <v>2142000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1944000</v>
+        <v>2142000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1417000</v>
+        <v>1494000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1417000</v>
+        <v>1494000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1489000</v>
+        <v>1697000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1489000</v>
+        <v>1697000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1737000</v>
+        <v>2022000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1737000</v>
+        <v>2022000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1130000</v>
+        <v>1228000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1130000</v>
+        <v>1228000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1255000</v>
+        <v>1441000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1255000</v>
+        <v>1441000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1568000</v>
+        <v>1680000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1568000</v>
+        <v>1680000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1423000</v>
+        <v>1611000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1423000</v>
+        <v>1611000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1723000</v>
+        <v>2003000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1723000</v>
+        <v>2003000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1760000</v>
+        <v>2051000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1760000</v>
+        <v>2051000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1605000</v>
+        <v>1849000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1605000</v>
+        <v>1849000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2291000</v>
+        <v>2746000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2291000</v>
+        <v>2746000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2624000</v>
+        <v>3182000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2624000</v>
+        <v>3182000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1494000</v>
+        <v>1589000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1494000</v>
+        <v>1589000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1673000</v>
+        <v>2770000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1673000</v>
+        <v>2770000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1772000</v>
+        <v>2067000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1772000</v>
+        <v>2067000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2390000</v>
+        <v>2691000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2390000</v>
+        <v>2691000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1624000</v>
+        <v>2003000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1624000</v>
+        <v>2003000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1834000</v>
+        <v>1866000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1834000</v>
+        <v>1866000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1883000</v>
+        <v>2068000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1883000</v>
+        <v>2068000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1820000</v>
+        <v>1749000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1820000</v>
+        <v>1749000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1439000</v>
+        <v>1531000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1439000</v>
+        <v>1531000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1186000</v>
+        <v>1332000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1186000</v>
+        <v>1332000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1556000</v>
+        <v>1692000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1556000</v>
+        <v>1692000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1686000</v>
+        <v>1871000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1686000</v>
+        <v>1871000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2093000</v>
+        <v>2087000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2093000</v>
+        <v>2087000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2038000</v>
+        <v>2215000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2038000</v>
+        <v>2215000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2933000</v>
+        <v>3249000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2933000</v>
+        <v>3249000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1624000</v>
+        <v>1749000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1624000</v>
+        <v>1749000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2144000</v>
+        <v>2389000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2144000</v>
+        <v>2389000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1944000</v>
+        <v>2142000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1944000</v>
+        <v>2142000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2594000</v>
+        <v>2942000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2594000</v>
+        <v>2942000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1429000</v>
+        <v>1509000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1429000</v>
+        <v>1509000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2009000</v>
+        <v>2222000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2009000</v>
+        <v>2222000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3348000</v>
+        <v>3613000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3348000</v>
+        <v>3613000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2763000</v>
+        <v>2938000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2763000</v>
+        <v>2938000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3445000</v>
+        <v>3725000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3445000</v>
+        <v>3725000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4225000</v>
+        <v>4625000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4225000</v>
+        <v>4625000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1593000</v>
+        <v>1833000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1593000</v>
+        <v>1833000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1567000</v>
+        <v>1799000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1567000</v>
+        <v>1799000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1862000</v>
+        <v>2184000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1862000</v>
+        <v>2184000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1807000</v>
+        <v>2113000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1807000</v>
+        <v>2113000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1997000</v>
+        <v>2362000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1997000</v>
+        <v>2362000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1559000</v>
+        <v>1789000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1559000</v>
+        <v>1789000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2209000</v>
+        <v>2639000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2209000</v>
+        <v>2639000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1494000</v>
+        <v>1704000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1494000</v>
+        <v>1704000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1462000</v>
+        <v>1662000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1462000</v>
+        <v>1662000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1884000</v>
+        <v>1924000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1884000</v>
+        <v>1924000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2534000</v>
+        <v>2869000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2534000</v>
+        <v>2869000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3575000</v>
+        <v>4150000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3575000</v>
+        <v>4150000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2080000</v>
+        <v>2310000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2080000</v>
+        <v>2310000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1797000</v>
+        <v>1961000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1797000</v>
+        <v>1961000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1755000</v>
+        <v>1910000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1755000</v>
+        <v>1910000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1479000</v>
+        <v>1743000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1479000</v>
+        <v>1743000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1566000</v>
+        <v>1798000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1566000</v>
+        <v>1798000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1345000</v>
+        <v>1406000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1345000</v>
+        <v>1406000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2599000</v>
+        <v>3099000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2599000</v>
+        <v>3099000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3533000</v>
+        <v>3649000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3533000</v>
+        <v>3649000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2177000</v>
+        <v>2430000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2177000</v>
+        <v>2430000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1888000</v>
+        <v>2074000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1888000</v>
+        <v>2074000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1950000</v>
+        <v>2150000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1950000</v>
+        <v>2150000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2574000</v>
+        <v>2720000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2574000</v>
+        <v>2720000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2079000</v>
+        <v>2469000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2079000</v>
+        <v>2469000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1982000</v>
+        <v>2549000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1982000</v>
+        <v>2549000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2177000</v>
+        <v>2749000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2177000</v>
+        <v>2749000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1592000</v>
+        <v>1849900</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1592000</v>
+        <v>1849900</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1754000</v>
+        <v>2349000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1754000</v>
+        <v>2349000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1624000</v>
+        <v>1899000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1624000</v>
+        <v>1899000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1689000</v>
+        <v>1849000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1689000</v>
+        <v>1849000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2404000</v>
+        <v>2999900</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2404000</v>
+        <v>2999900</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2794000</v>
+        <v>3899900</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2794000</v>
+        <v>3899900</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1267000</v>
+        <v>1549900</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1267000</v>
+        <v>1549900</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1299000</v>
+        <v>1649000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1299000</v>
+        <v>1649000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1416000</v>
+        <v>1649900</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1416000</v>
+        <v>1649900</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3114000</v>
+        <v>3343000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3114000</v>
+        <v>3343000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3504000</v>
+        <v>3793000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3504000</v>
+        <v>3793000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1618000</v>
+        <v>1741000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1618000</v>
+        <v>1741000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2625000</v>
+        <v>3183000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2625000</v>
+        <v>3183000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1741000</v>
+        <v>1893000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1741000</v>
+        <v>1893000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1819000</v>
+        <v>1988000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1819000</v>
+        <v>1988000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2138000</v>
+        <v>2381000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2138000</v>
+        <v>2381000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4257000</v>
+        <v>4989000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4257000</v>
+        <v>4989000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4453000</v>
+        <v>5231000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4453000</v>
+        <v>5231000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1268000</v>
+        <v>1408000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1268000</v>
+        <v>1408000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2135000</v>
+        <v>2377000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2135000</v>
+        <v>2377000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4590000</v>
+        <v>5400000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4590000</v>
+        <v>5400000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2197000</v>
+        <v>2454000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2197000</v>
+        <v>2454000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2435000</v>
+        <v>2747000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2435000</v>
+        <v>2747000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1365000</v>
+        <v>1535000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1365000</v>
+        <v>1535000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1137000</v>
+        <v>1237000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1137000</v>
+        <v>1237000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1425000</v>
+        <v>1613000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1425000</v>
+        <v>1613000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1559000</v>
+        <v>1669000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1559000</v>
+        <v>1669000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1614000</v>
+        <v>1736000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1614000</v>
+        <v>1736000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1722000</v>
+        <v>1869000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1722000</v>
+        <v>1869000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1884000</v>
+        <v>2069000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1884000</v>
+        <v>2069000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2307000</v>
+        <v>2589000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2307000</v>
+        <v>2589000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2047000</v>
+        <v>2427000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2047000</v>
+        <v>2427000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2859000</v>
+        <v>3269000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2859000</v>
+        <v>3269000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1618000</v>
+        <v>1742000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1618000</v>
+        <v>1742000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2443000</v>
+        <v>2757000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2443000</v>
+        <v>2757000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1294000</v>
+        <v>1442000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1294000</v>
+        <v>1442000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1669000</v>
+        <v>1804000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1669000</v>
+        <v>1804000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1944000</v>
+        <v>2143000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1944000</v>
+        <v>2143000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2210000</v>
+        <v>2470000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2210000</v>
+        <v>2470000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1253000</v>
+        <v>1389000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1253000</v>
+        <v>1389000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1919000</v>
+        <v>2259000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1919000</v>
+        <v>2259000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1943000</v>
+        <v>2291000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1943000</v>
+        <v>2291000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2091000</v>
+        <v>2484000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2091000</v>
+        <v>2484000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2112000</v>
+        <v>2512000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2112000</v>
+        <v>2512000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1169000</v>
+        <v>1369000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1169000</v>
+        <v>1369000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1455000</v>
+        <v>1429000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1455000</v>
+        <v>1429000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1635000</v>
+        <v>1762000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1635000</v>
+        <v>1762000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1949000</v>
+        <v>2148000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1949000</v>
+        <v>2148000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3819000</v>
+        <v>4156000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3819000</v>
+        <v>4156000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1589000</v>
+        <v>1706000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1589000</v>
+        <v>1706000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1635000</v>
+        <v>1762000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1635000</v>
+        <v>1762000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1609000</v>
+        <v>1730000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1609000</v>
+        <v>1730000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2077000</v>
+        <v>2146000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2077000</v>
+        <v>2146000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2138000</v>
+        <v>2217000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2138000</v>
+        <v>2217000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4277000</v>
+        <v>4685000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4277000</v>
+        <v>4685000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1157000</v>
+        <v>1218000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1157000</v>
+        <v>1218000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1189000</v>
+        <v>1214000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1189000</v>
+        <v>1214000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1324000</v>
+        <v>1380000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1324000</v>
+        <v>1380000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1416000</v>
+        <v>1493000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1416000</v>
+        <v>1493000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1737000</v>
+        <v>1888000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1737000</v>
+        <v>1888000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1936000</v>
+        <v>2133000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1936000</v>
+        <v>2133000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2971000</v>
+        <v>3406000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2971000</v>
+        <v>3406000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3162000</v>
+        <v>3642000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3162000</v>
+        <v>3642000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1663000</v>
+        <v>1796000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1663000</v>
+        <v>1796000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1887000</v>
+        <v>2029000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1887000</v>
+        <v>2029000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2227000</v>
+        <v>2491000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2227000</v>
+        <v>2491000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2583000</v>
+        <v>3127000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2583000</v>
+        <v>3127000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1657000</v>
+        <v>1790000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1657000</v>
+        <v>1790000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1087000</v>
+        <v>1171000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1087000</v>
+        <v>1171000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3445000</v>
+        <v>3725000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3445000</v>
+        <v>3725000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1481000</v>
+        <v>1459000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1481000</v>
+        <v>1459000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1884000</v>
+        <v>1924000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1884000</v>
+        <v>1924000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2405000</v>
+        <v>2525000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2405000</v>
+        <v>2525000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3984000</v>
+        <v>4347000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3984000</v>
+        <v>4347000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1949000</v>
+        <v>1999000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1949000</v>
+        <v>1999000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1820000</v>
+        <v>1850000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1820000</v>
+        <v>1850000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2724000</v>
+        <v>2893000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2724000</v>
+        <v>2893000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>3185000</v>
+        <v>3425000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3185000</v>
+        <v>3425000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1754000</v>
+        <v>1774000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1754000</v>
+        <v>1774000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2088000</v>
+        <v>2480000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2088000</v>
+        <v>2480000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2333000</v>
+        <v>2801000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2333000</v>
+        <v>2801000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2183000</v>
+        <v>2743000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2183000</v>
+        <v>2743000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2274000</v>
+        <v>2549000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2274000</v>
+        <v>2549000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2489000</v>
+        <v>2813000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2489000</v>
+        <v>2813000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2593000</v>
+        <v>2941000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2593000</v>
+        <v>2941000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2723000</v>
+        <v>3101000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2723000</v>
+        <v>3101000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1099000</v>
+        <v>1280000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1099000</v>
+        <v>1280000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1430000</v>
+        <v>1620000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1430000</v>
+        <v>1620000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1449000</v>
+        <v>1399000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1449000</v>
+        <v>1399000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1299000</v>
+        <v>1399000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1299000</v>
+        <v>1399000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1579000</v>
+        <v>1815000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1579000</v>
+        <v>1815000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2469000</v>
+        <v>2789000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2469000</v>
+        <v>2789000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1412000</v>
+        <v>1688000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1412000</v>
+        <v>1688000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1265000</v>
+        <v>1507000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1265000</v>
+        <v>1507000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1327000</v>
+        <v>1412000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1327000</v>
+        <v>1412000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1030000</v>
+        <v>1218000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1030000</v>
+        <v>1218000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1079000</v>
+        <v>1278000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1079000</v>
+        <v>1278000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1049000</v>
+        <v>1241000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1049000</v>
+        <v>1241000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1118000</v>
+        <v>1326000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1118000</v>
+        <v>1326000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2529000</v>
+        <v>3057000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2529000</v>
+        <v>3057000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2853000</v>
+        <v>3481000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2853000</v>
+        <v>3481000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2372000</v>
+        <v>2852000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2372000</v>
+        <v>2852000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2729000</v>
+        <v>2899000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2729000</v>
+        <v>2899000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4192000</v>
+        <v>4587000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4192000</v>
+        <v>4587000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6174000</v>
+        <v>6874000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6174000</v>
+        <v>6874000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2854000</v>
+        <v>3482000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2854000</v>
+        <v>3482000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2274000</v>
+        <v>2724000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2274000</v>
+        <v>2724000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2919000</v>
+        <v>3342000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2919000</v>
+        <v>3342000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3054000</v>
+        <v>3509000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3054000</v>
+        <v>3509000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1806000</v>
+        <v>2184000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1806000</v>
+        <v>2184000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3623000</v>
+        <v>3931000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3623000</v>
+        <v>3931000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>4786000</v>
+        <v>5272000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4786000</v>
+        <v>5272000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3394000</v>
+        <v>3666000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3394000</v>
+        <v>3666000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6942000</v>
+        <v>8828000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>6942000</v>
+        <v>8828000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4204000</v>
+        <v>5248000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4204000</v>
+        <v>5248000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>4184000</v>
+        <v>4669000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4184000</v>
+        <v>4669000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2184000</v>
+        <v>1619000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2184000</v>
+        <v>1619000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5477,40 +5477,40 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4 EV</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3725000</v>
+        <v>1854000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x6pro/suv</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3725000</v>
+        <v>1854000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
+          <t>https://saratov-avtohous.ru/katalog/livan/x6pro/suv</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5520,30 +5520,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4 EV</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1459000</v>
+        <v>3725000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1459000</v>
+        <v>3725000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5553,30 +5553,30 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1924000</v>
+        <v>1459000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1924000</v>
+        <v>1459000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5586,30 +5586,30 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2525000</v>
+        <v>1924000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2525000</v>
+        <v>1924000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5619,30 +5619,30 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4347000</v>
+        <v>2525000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4347000</v>
+        <v>2525000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/7/1</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5652,30 +5652,30 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1999000</v>
+        <v>4347000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1999000</v>
+        <v>4347000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5685,30 +5685,30 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RX 5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1850000</v>
+        <v>1999000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1850000</v>
+        <v>1999000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/hs/2</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5718,30 +5718,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RX 8</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2893000</v>
+        <v>1850000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2893000</v>
+        <v>1850000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5751,30 +5751,30 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>RX 9</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>3425000</v>
+        <v>2893000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3425000</v>
+        <v>2893000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5784,63 +5784,63 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1774000</v>
+        <v>3425000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1774000</v>
+        <v>3425000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2480000</v>
+        <v>1774000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2480000</v>
+        <v>1774000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5850,30 +5850,30 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2801000</v>
+        <v>2480000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2801000</v>
+        <v>2480000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5883,63 +5883,63 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2743000</v>
+        <v>2801000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2743000</v>
+        <v>2801000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2549000</v>
+        <v>2743000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2549000</v>
+        <v>2743000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5949,30 +5949,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2813000</v>
+        <v>2549000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2813000</v>
+        <v>2549000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5982,30 +5982,30 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2941000</v>
+        <v>2813000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2941000</v>
+        <v>2813000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6015,63 +6015,63 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3101000</v>
+        <v>2941000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3101000</v>
+        <v>2941000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1280000</v>
+        <v>3101000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1280000</v>
+        <v>3101000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6081,63 +6081,63 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1620000</v>
+        <v>1280000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1620000</v>
+        <v>1280000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1399000</v>
+        <v>1620000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1399000</v>
+        <v>1620000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -6163,14 +6163,14 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6180,96 +6180,96 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1815000</v>
+        <v>1399000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1815000</v>
+        <v>1399000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2789000</v>
+        <v>1815000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2789000</v>
+        <v>1815000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1688000</v>
+        <v>2789000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1688000</v>
+        <v>2789000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6279,30 +6279,30 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1507000</v>
+        <v>1688000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1507000</v>
+        <v>1688000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6312,30 +6312,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1412000</v>
+        <v>1507000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1412000</v>
+        <v>1507000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6345,30 +6345,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1218000</v>
+        <v>1583000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1218000</v>
+        <v>1583000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6378,30 +6378,30 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1278000</v>
+        <v>1218000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1278000</v>
+        <v>1218000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6411,30 +6411,30 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1241000</v>
+        <v>1278000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1241000</v>
+        <v>1278000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6444,63 +6444,63 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1326000</v>
+        <v>1241000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1326000</v>
+        <v>1241000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1548000</v>
+        <v>1326000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1548000</v>
+        <v>1326000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6510,30 +6510,30 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1480000</v>
+        <v>1548000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1480000</v>
+        <v>1548000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6543,63 +6543,63 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1579000</v>
+        <v>1480000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1579000</v>
+        <v>1480000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3057000</v>
+        <v>1579000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3057000</v>
+        <v>1579000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6609,30 +6609,30 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>3481000</v>
+        <v>3057000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3481000</v>
+        <v>3057000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6642,63 +6642,63 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2852000</v>
+        <v>3481000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2852000</v>
+        <v>3481000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2899000</v>
+        <v>2852000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2899000</v>
+        <v>2852000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6708,30 +6708,30 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4587000</v>
+        <v>2899000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4587000</v>
+        <v>2899000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6741,63 +6741,63 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6874000</v>
+        <v>4587000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6874000</v>
+        <v>4587000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3482000</v>
+        <v>6874000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3482000</v>
+        <v>6874000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6807,30 +6807,30 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2724000</v>
+        <v>3482000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2724000</v>
+        <v>3482000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6840,30 +6840,30 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3342000</v>
+        <v>2724000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3342000</v>
+        <v>2724000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6873,30 +6873,30 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3509000</v>
+        <v>3342000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3509000</v>
+        <v>3342000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2184000</v>
+        <v>3509000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2184000</v>
+        <v>3509000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6939,30 +6939,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3931000</v>
+        <v>2184000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3931000</v>
+        <v>2184000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6972,30 +6972,30 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>5272000</v>
+        <v>3931000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>5272000</v>
+        <v>3931000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7005,30 +7005,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3666000</v>
+        <v>5272000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3666000</v>
+        <v>5272000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7038,30 +7038,30 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>8828000</v>
+        <v>3666000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>8828000</v>
+        <v>3666000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7071,54 +7071,87 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>5248000</v>
+        <v>8828000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5248000</v>
+        <v>8828000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>5248000</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
           <t>620</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>RAV4</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D204" t="n">
         <v>4669000</v>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="F203" t="n">
+      <c r="F204" t="n">
         <v>4669000</v>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
         </is>

--- a/xlsx/saratov.xlsx
+++ b/xlsx/saratov.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M316"/>
+  <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,11 +850,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1224900</v>
+        <v>1228000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/changan/alsvin/sedan/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/changan/alsvin/suv</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1224900</v>
+        <v>1824900</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1699900</v>
+        <v>2629900</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3089900</v>
+        <v>3949900</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3864907</v>
+        <v>4614907</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3864907</v>
+        <v>4614907</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1809900</v>
+        <v>2509900</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3289900</v>
+        <v>3739900</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1414,14 +1414,6 @@
           <t>https://saratov-avtohous.ru/katalog/changan/lamore/1</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>2699900</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/changan/lamore/sedan/price/</t>
-        </is>
-      </c>
       <c r="L24" t="n">
         <v>2739900</v>
       </c>
@@ -1464,7 +1456,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3429900</v>
+        <v>4549900</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1513,7 +1505,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2079900</v>
+        <v>2959900</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1554,7 +1546,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2472892</v>
+        <v>3172892</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1603,7 +1595,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2599900</v>
+        <v>3209900</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1758,7 +1750,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1390000</v>
+        <v>1375000</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1922,11 +1914,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1836800</v>
+        <v>1871000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/chery/tiggo7promax_i/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/chery/tiggo-7pro-max/1-restyling</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1938,7 +1930,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1836800</v>
+        <v>1879360</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2704,19 +2696,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2500000</v>
+        <v>2899900</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/exeed/lx/suv/price/</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/exeed/lx/suv/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/exeed/lx/</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2745,11 +2729,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2200000</v>
+        <v>2222000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/exeed/lx_i/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2761,7 +2745,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2200000</v>
+        <v>2460000</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2884,7 +2868,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3150000</v>
+        <v>4090000</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3886,7 +3870,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743990</v>
+        <v>1730656</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4453,11 +4437,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2306790</v>
+        <v>2549000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/haval/dargo/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo/suv</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -4469,7 +4453,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2306790</v>
+        <v>2849000</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -4502,11 +4486,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2344300</v>
+        <v>2749000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/haval/dargox/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/dargo-x/suv</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -4518,7 +4502,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2344300</v>
+        <v>2949000</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -4600,7 +4584,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2022790</v>
+        <v>2449000</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -4986,7 +4970,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1454790</v>
+        <v>2049000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4994,7 +4978,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1454790</v>
+        <v>2049000</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5052,11 +5036,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1547090</v>
+        <v>1649900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/haval/m6/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/haval/m6/suv</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5068,7 +5052,7 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1547090</v>
+        <v>1779000</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -5849,7 +5833,7 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1485000</v>
+        <v>1639000</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -6211,7 +6195,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2071930</v>
+        <v>2101528</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6227,7 +6211,7 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>2071930</v>
+        <v>2101528</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -6284,7 +6268,7 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>3289254</v>
+        <v>3307890</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -6464,7 +6448,7 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>2149000</v>
+        <v>2249000</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -6489,11 +6473,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2099900</v>
+        <v>2143000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/jetour/x70plus/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/jetour/x70_plus/suv</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -6505,7 +6489,7 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>2099900</v>
+        <v>2399900</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -6628,11 +6612,11 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2153900</v>
+        <v>2259000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/jetta/vs5/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -6643,14 +6627,6 @@
           <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling</t>
         </is>
       </c>
-      <c r="H157" t="n">
-        <v>2153900</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/jetta/vs5/suv/price/</t>
-        </is>
-      </c>
       <c r="L157" t="n">
         <v>2412000</v>
       </c>
@@ -6677,11 +6653,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2175000</v>
+        <v>2291000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/jetta/vs5_i/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -6693,7 +6669,7 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>2175000</v>
+        <v>2440000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -6767,11 +6743,11 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2381500</v>
+        <v>2512000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/jetta/vs7_i/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -6782,14 +6758,6 @@
           <t>https://saratov-avtohous.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
-      <c r="H160" t="n">
-        <v>2381500</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/jetta/vs7_i/suv/price/</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7737,7 +7705,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3062990</v>
+        <v>3112990</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7753,7 +7721,7 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3062990</v>
+        <v>3112990</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -8360,7 +8328,7 @@
         </is>
       </c>
       <c r="H201" t="n">
-        <v>1124000</v>
+        <v>1049000</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -8508,7 +8476,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>1244000</v>
+        <v>1324000</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -9713,73 +9681,73 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>GLE coupe</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>18190000</v>
+        <v>2549000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/mercedes_benz/gle_coupe/suv/price/</t>
-        </is>
-      </c>
-      <c r="H240" t="n">
-        <v>18190000</v>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/mercedes_benz/gle_coupe/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>2549000</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>17890000</v>
+        <v>2813000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/mercedes_benz/gls/suv/price/</t>
-        </is>
-      </c>
-      <c r="H241" t="n">
-        <v>17890000</v>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/mercedes_benz/gls/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>2813000</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -9789,30 +9757,30 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2549000</v>
+        <v>2941000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>2549000</v>
+        <v>2941000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -9822,96 +9790,112 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2813000</v>
+        <v>3101000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>2813000</v>
+        <v>3101000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2941000</v>
+        <v>1280000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>2941000</v>
+        <v>1280000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>1362000</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/moskvich/3/suv/price/</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1832000</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3101000</v>
+        <v>3508000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
-        </is>
-      </c>
-      <c r="F245" t="n">
-        <v>3101000</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://saratov.autosalon.shop/catalog/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>3508000</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -9921,120 +9905,104 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1280000</v>
+        <v>1620000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1280000</v>
+        <v>1620000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/3/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>1442000</v>
+        <v>1703190</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/moskvich/3/suv/price/</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1832000</v>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/moskvich/3/</t>
+          <t>https://saratov.autospot.ru/brands/moskvich/6/liftback/price/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>3508000</v>
+        <v>4309000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/moskvich/3e/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/murano/</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>3508000</v>
+        <v>4309000</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/moskvich/3e/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1620000</v>
+        <v>908000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
-        </is>
-      </c>
-      <c r="F248" t="n">
-        <v>1620000</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/moskvich/6/liftback</t>
-        </is>
-      </c>
-      <c r="H248" t="n">
-        <v>1703190</v>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/moskvich/6/liftback/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>908000</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -10044,30 +10012,30 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4309000</v>
+        <v>178000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/murano/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/terrano/</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>4309000</v>
+        <v>178000</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/murano/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -10077,96 +10045,120 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>908000</v>
+        <v>1149000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/qashqai/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/x-trail/</t>
         </is>
       </c>
       <c r="L250" t="n">
-        <v>908000</v>
+        <v>1149000</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/qashqai/</t>
+          <t>https://saratov.autosalon.shop/catalog/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>178000</v>
+        <v>1355874</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/terrano/</t>
+          <t>https://saratov.autospot.ru/brands/omoda/c5/suv/price/</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1355874</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/omoda/c5/suv/price/</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>1739900</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-c5/</t>
         </is>
       </c>
       <c r="L251" t="n">
-        <v>178000</v>
+        <v>2124000</v>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/terrano/</t>
+          <t>https://saratov.autosalon.shop/catalog/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5 FL</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1149000</v>
+        <v>1939900</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1149000</v>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/nissan/x-trail/</t>
+          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-c5-fl/</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>1939900</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-c5-fl/</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -10176,54 +10168,30 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1355874</v>
+        <v>1804070</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/omoda/c5/suv/price/</t>
-        </is>
-      </c>
-      <c r="F253" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/c5/suv</t>
+          <t>https://saratov.autospot.ru/brands/omoda/c5_i/suv/price/</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1355874</v>
+        <v>1804070</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/omoda/c5/suv/price/</t>
-        </is>
-      </c>
-      <c r="J253" t="n">
-        <v>1739900</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-c5/</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>2124000</v>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/omoda/c5/</t>
+          <t>https://saratov.autospot.ru/brands/omoda/c5_i/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -10233,30 +10201,54 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>C5 FL</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1939900</v>
+        <v>1399000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-c5-fl/</t>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>1471120</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/omoda/s5/sedan/price/</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1939900</v>
+        <v>1809900</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-c5-fl/</t>
+          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-s5/</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>2109900</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -10266,169 +10258,145 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1719900</v>
+        <v>1740890</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/omoda/c5_i/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/omoda/s5gt/sedan/price/</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>1719900</v>
+        <v>1740890</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/omoda/c5_i/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/omoda/s5gt/sedan/price/</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>2129900</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-s5-gt/</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1399000</v>
+        <v>2789000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1399000</v>
+        <v>2789000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/omoda_s5/suv</t>
-        </is>
-      </c>
-      <c r="H256" t="n">
-        <v>1460760</v>
-      </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/omoda/s5/sedan/price/</t>
-        </is>
-      </c>
-      <c r="J256" t="n">
-        <v>1809900</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-s5/</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>2109900</v>
-      </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/omoda/s5/</t>
+          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1740890</v>
+        <v>725000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/omoda/s5gt/sedan/price/</t>
-        </is>
-      </c>
-      <c r="F257" t="n">
-        <v>1815000</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/omoda/s5_gt/sedan</t>
-        </is>
-      </c>
-      <c r="H257" t="n">
-        <v>1740890</v>
-      </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/omoda/s5gt/sedan/price/</t>
-        </is>
-      </c>
-      <c r="J257" t="n">
-        <v>2129900</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>https://saratov.asavtomotors.ru/catalog/cars/omoda/omoda-s5-gt/</t>
+          <t>https://saratov.autosalon.shop/catalog/ravon/nexia_r3/</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>725000</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>2789000</v>
+        <v>783000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
-        </is>
-      </c>
-      <c r="F258" t="n">
-        <v>2789000</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/oting/paladin/1</t>
+          <t>https://saratov.autosalon.shop/catalog/ravon/r2/</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>783000</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -10438,96 +10406,112 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>725000</v>
+        <v>751000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/ravon/nexia_r3/</t>
+          <t>https://saratov.autosalon.shop/catalog/ravon/r4/</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>725000</v>
+        <v>751000</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/ravon/nexia_r3/</t>
+          <t>https://saratov.autosalon.shop/catalog/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>783000</v>
+        <v>874000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/ravon/r2/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>1688000</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
       <c r="L260" t="n">
-        <v>783000</v>
+        <v>874000</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/ravon/r2/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>751000</v>
+        <v>514000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/ravon/r4/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/duster/</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>1507000</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>751000</v>
+        <v>514000</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/ravon/r4/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -10537,38 +10521,38 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>874000</v>
+        <v>729000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/arkana/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/kaptur/</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1688000</v>
+        <v>1583000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/arkana/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
       <c r="L262" t="n">
-        <v>874000</v>
+        <v>729000</v>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/arkana/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -10578,38 +10562,38 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>514000</v>
+        <v>411000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/duster/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/logan/</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1507000</v>
+        <v>1218000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/duster/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>514000</v>
+        <v>411000</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/duster/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -10619,38 +10603,38 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>729000</v>
+        <v>519990</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/kaptur/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1583000</v>
+        <v>1278000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/kaptur/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="L264" t="n">
-        <v>729000</v>
+        <v>519990</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/kaptur/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -10660,7 +10644,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -10668,15 +10652,15 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/logan/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/sandero/</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1218000</v>
+        <v>1241000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -10684,14 +10668,14 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/logan/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -10701,120 +10685,104 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>519990</v>
+        <v>517000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/logan_stepway/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1278000</v>
+        <v>1326000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
       <c r="L266" t="n">
-        <v>519990</v>
+        <v>517000</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/logan_stepway/</t>
+          <t>https://saratov.autosalon.shop/catalog/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>411000</v>
+        <v>1548000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/sandero/</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1241000</v>
+        <v>1548000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero/hatchback</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>411000</v>
-      </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/sandero/</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>517000</v>
+        <v>1480000</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/sandero_stepway/</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1326000</v>
+        <v>1480000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/renault/sandero-stepway/hatchback</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>517000</v>
-      </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/renault/sandero_stepway/</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -10824,96 +10792,104 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1548000</v>
+        <v>1579000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1548000</v>
+        <v>1579000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01/1</t>
+          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1480000</v>
+        <v>1000000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/karoq/</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1480000</v>
+        <v>3057000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g01f/1</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1579000</v>
+        <v>3481000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>1579000</v>
+        <v>3481000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/swm/g05pro/1</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -10923,38 +10899,30 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1000000</v>
+        <v>2912000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="F272" t="n">
-        <v>3057000</v>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
         </is>
       </c>
       <c r="L272" t="n">
-        <v>1000000</v>
+        <v>2912000</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/karoq/</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -10964,30 +10932,38 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3481000</v>
+        <v>1107000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/octavia/</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>3481000</v>
+        <v>2852000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1107000</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -10997,30 +10973,30 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2912000</v>
+        <v>541000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/rapid/</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2912000</v>
+        <v>541000</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11030,38 +11006,30 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1107000</v>
+        <v>1637000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="F275" t="n">
-        <v>2852000</v>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/superb/</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1107000</v>
+        <v>1637000</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/octavia/</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -11071,96 +11039,96 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>541000</v>
+        <v>1768000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/rapid/</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>541000</v>
+        <v>1768000</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/rapid/</t>
+          <t>https://saratov.autosalon.shop/catalog/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1637000</v>
+        <v>2016000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1637000</v>
-      </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/superb/</t>
+          <t>https://saratov.autospot.ru/brands/solaris/hc/suv/price/</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>2016000</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/solaris/hc/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1768000</v>
+        <v>1891800</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1768000</v>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/skoda/superb_combi/</t>
+          <t>https://saratov.autospot.ru/brands/solaris/hs/sedan/price/</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>1891800</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/solaris/hs/sedan/price/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -11170,30 +11138,30 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>2016000</v>
+        <v>1785000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/solaris/hc/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/solaris/krs/sedan/price/</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>2016000</v>
+        <v>1785000</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/solaris/hc/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/solaris/krs/sedan/price/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -11203,96 +11171,96 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1891800</v>
+        <v>1661000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/solaris/hs/sedan/price/</t>
+          <t>https://saratov.autospot.ru/brands/solaris/krx/hatchback/price/</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>1891800</v>
+        <v>1661000</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/solaris/hs/sedan/price/</t>
+          <t>https://saratov.autospot.ru/brands/solaris/krx/hatchback/price/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1984500</v>
+        <v>2069000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/solaris/krs/sedan/price/</t>
-        </is>
-      </c>
-      <c r="H281" t="n">
-        <v>1984500</v>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/solaris/krs/sedan/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/suzuki/all_new_jimny/</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>2069000</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/suzuki/all_new_jimny/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1661000</v>
+        <v>1969000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/solaris/krx/hatchback/price/</t>
-        </is>
-      </c>
-      <c r="H282" t="n">
-        <v>1661000</v>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/solaris/krx/hatchback/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/suzuki/sx4/</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1969000</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/suzuki/sx4/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -11302,96 +11270,112 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2069000</v>
+        <v>1819000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/suzuki/all_new_jimny/</t>
+          <t>https://saratov.autosalon.shop/catalog/suzuki/vitara/</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>2069000</v>
+        <v>1819000</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/suzuki/all_new_jimny/</t>
+          <t>https://saratov.autosalon.shop/catalog/suzuki/vitara/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1969000</v>
+        <v>2899000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/suzuki/sx4/</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>2899000</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>4649000</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/tank/300/suv/price/</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1969000</v>
+        <v>4049000</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/suzuki/sx4/</t>
+          <t>https://saratov.autosalon.shop/catalog/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1819000</v>
+        <v>5864110</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/suzuki/vitara/</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1819000</v>
-      </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/suzuki/vitara/</t>
+          <t>https://saratov.autospot.ru/brands/tank/400/suv/price/</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>5864110</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/tank/400/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -11401,46 +11385,46 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2899000</v>
+        <v>4587000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2899000</v>
+        <v>4587000</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/300/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>4567430</v>
+        <v>7209000</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/tank/300/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/tank/500/suv/price/</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>4049000</v>
+        <v>6249000</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/tank/300/</t>
+          <t>https://saratov.autosalon.shop/catalog/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -11450,30 +11434,30 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>500 Urban</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>5299000</v>
+        <v>6799000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/tank/400/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/tank/500urban/suv/price/</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>5299000</v>
+        <v>6799000</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/tank/400/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/tank/500urban/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -11483,120 +11467,104 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>4587000</v>
+        <v>6874000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>4587000</v>
+        <v>6874000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/500/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>6099000</v>
+        <v>9571110</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/tank/500/suv/price/</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>6249000</v>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/tank/500/</t>
+          <t>https://saratov.autospot.ru/brands/tank/700/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>500 Urban</t>
+          <t>BZ4X</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5499000</v>
+        <v>3482000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/tank/500urban/suv/price/</t>
-        </is>
-      </c>
-      <c r="H289" t="n">
-        <v>5499000</v>
-      </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/tank/500urban/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>3482000</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>6874000</v>
+        <v>2724000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>6874000</v>
+        <v>2724000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/tank/700/1</t>
-        </is>
-      </c>
-      <c r="H290" t="n">
-        <v>9154000</v>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/tank/700/suv/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -11606,30 +11574,30 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>BZ4X</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3482000</v>
+        <v>3342000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>3482000</v>
+        <v>3342000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/bz4x/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -11639,30 +11607,30 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2724000</v>
+        <v>3509000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2724000</v>
+        <v>3509000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/chr/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -11672,38 +11640,30 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>3342000</v>
+        <v>2184000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>3342000</v>
+        <v>2184000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/sedan</t>
-        </is>
-      </c>
-      <c r="H293" t="n">
-        <v>6690000</v>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/toyota/camry_xv70/sedan/price/</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -11713,30 +11673,30 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>3509000</v>
+        <v>3931000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>3509000</v>
+        <v>3931000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -11746,30 +11706,30 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2184000</v>
+        <v>5272000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>2184000</v>
+        <v>5272000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/corolla/sedan</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -11779,30 +11739,30 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3931000</v>
+        <v>3666000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>3931000</v>
+        <v>3666000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -11812,38 +11772,38 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>5272000</v>
+        <v>8828000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5272000</v>
+        <v>8828000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/highlander/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>8649000</v>
+        <v>13999000</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/toyota/highlander_iv/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/toyota/lc_300/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -11853,30 +11813,30 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3666000</v>
+        <v>5248000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>3666000</v>
+        <v>5248000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/hilux/pickup</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -11886,38 +11846,30 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>8828000</v>
+        <v>11449000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
-        </is>
-      </c>
-      <c r="F299" t="n">
-        <v>8828000</v>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-300/suv</t>
+          <t>https://saratov.autospot.ru/brands/toyota/lcprado250/suv/price/</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>14199000</v>
+        <v>11449000</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/toyota/lc_300/suv/price/</t>
+          <t>https://saratov.autospot.ru/brands/toyota/lcprado250/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -11927,104 +11879,104 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>5248000</v>
+        <v>4649000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov.autospot.ru/brands/toyota/rav4/suv/price/</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>5248000</v>
+        <v>4669000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/land-cruiser-prado/suv</t>
+          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>4649000</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>https://saratov.autospot.ru/brands/toyota/rav4/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>11199000</v>
+        <v>589000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/toyota/lcprado250/suv/price/</t>
-        </is>
-      </c>
-      <c r="H301" t="n">
-        <v>11199000</v>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/toyota/lcprado250/suv/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>589000</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4669000</v>
+        <v>664400</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
-        </is>
-      </c>
-      <c r="F302" t="n">
-        <v>4669000</v>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>https://saratov-avtohous.ru/katalog/toyota/rav4/suv</t>
-        </is>
-      </c>
-      <c r="H302" t="n">
-        <v>4699000</v>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/toyota/rav4/suv/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>664400</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -12034,458 +11986,252 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1460000</v>
+        <v>687000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/uaz/3909/van/price/</t>
-        </is>
-      </c>
-      <c r="H303" t="n">
-        <v>1460000</v>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/uaz/3909/van/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>687000</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1510000</v>
+        <v>1029000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/uaz/3303/truck/price/</t>
-        </is>
-      </c>
-      <c r="H304" t="n">
-        <v>1510000</v>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/uaz/3303/truck/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1029000</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1445000</v>
+        <v>2556000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/uaz/3741/van/price/</t>
-        </is>
-      </c>
-      <c r="H305" t="n">
-        <v>1445000</v>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/uaz/3741/van/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>2556000</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>589000</v>
+        <v>535300</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/uaz/hunter/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/polo/</t>
         </is>
       </c>
       <c r="L306" t="n">
-        <v>589000</v>
+        <v>535300</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/uaz/hunter/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>664400</v>
+        <v>1273900</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="H307" t="n">
-        <v>1744000</v>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/uaz/patriot/suv/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/taos/</t>
         </is>
       </c>
       <c r="L307" t="n">
-        <v>664400</v>
+        <v>1273900</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/uaz/patriot/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>687000</v>
+        <v>1304900</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/uaz/patriot_pickup/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="L308" t="n">
-        <v>687000</v>
+        <v>1304900</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/uaz/patriot_pickup/</t>
+          <t>https://saratov.autosalon.shop/catalog/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1888500</v>
+        <v>1089600</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://saratov.autospot.ru/brands/uaz/profi/truck/price/</t>
-        </is>
-      </c>
-      <c r="H309" t="n">
-        <v>1888500</v>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>https://saratov.autospot.ru/brands/uaz/profi/truck/price/</t>
+          <t>https://saratov.autosalon.shop/catalog/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1089600</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>https://saratov.autosalon.shop/catalog/zotye/coupa/</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1029000</v>
+        <v>871600</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/jetta/</t>
+          <t>https://saratov.autosalon.shop/catalog/zotye/t600/</t>
         </is>
       </c>
       <c r="L310" t="n">
-        <v>1029000</v>
+        <v>871600</v>
       </c>
       <c r="M310" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/jetta/</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>649</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Passat</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/passat/</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>535300</v>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>535300</v>
-      </c>
-      <c r="M312" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/polo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>653</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Taos</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>1273900</v>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1273900</v>
-      </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/taos/</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>1304900</v>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1304900</v>
-      </c>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/volkswagen/tiguan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Coupa</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>1089600</v>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1089600</v>
-      </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/zotye/coupa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>871600</v>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>https://saratov.autosalon.shop/catalog/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>871600</v>
-      </c>
-      <c r="M316" t="inlineStr">
         <is>
           <t>https://saratov.autosalon.shop/catalog/zotye/t600/</t>
         </is>
